--- a/HTML/0 Excel SRC Files/Other Excel.xlsx
+++ b/HTML/0 Excel SRC Files/Other Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QuickAccess\HTML\0 Excel SRC Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FA68BC-702E-459C-BA3A-E2A7C2E360BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0A95A1-D32B-4735-BDB1-E9F8F91CC9DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" tabRatio="899" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -22,17 +22,19 @@
     <sheet name="$$" sheetId="14" r:id="rId7"/>
     <sheet name="Others" sheetId="16" r:id="rId8"/>
     <sheet name="Food" sheetId="18" r:id="rId9"/>
-    <sheet name="Advise" sheetId="19" r:id="rId10"/>
-    <sheet name="Kidney" sheetId="20" r:id="rId11"/>
-    <sheet name="W(KG)" sheetId="21" r:id="rId12"/>
-    <sheet name="Clothes" sheetId="22" r:id="rId13"/>
-    <sheet name="Suit" sheetId="23" r:id="rId14"/>
-    <sheet name="Sports" sheetId="24" r:id="rId15"/>
-    <sheet name="Home" sheetId="25" r:id="rId16"/>
-    <sheet name="Companies" sheetId="26" r:id="rId17"/>
-    <sheet name="Numbers" sheetId="27" r:id="rId18"/>
-    <sheet name="Advise1" sheetId="28" r:id="rId19"/>
-    <sheet name="Law" sheetId="30" r:id="rId20"/>
+    <sheet name="Freelaning" sheetId="32" r:id="rId10"/>
+    <sheet name="Advise" sheetId="19" r:id="rId11"/>
+    <sheet name="Kidney" sheetId="20" r:id="rId12"/>
+    <sheet name="W(KG)" sheetId="21" r:id="rId13"/>
+    <sheet name="Clothes" sheetId="22" r:id="rId14"/>
+    <sheet name="Suit" sheetId="23" r:id="rId15"/>
+    <sheet name="Sports" sheetId="24" r:id="rId16"/>
+    <sheet name="Home" sheetId="25" r:id="rId17"/>
+    <sheet name="Companies" sheetId="26" r:id="rId18"/>
+    <sheet name="Numbers" sheetId="27" r:id="rId19"/>
+    <sheet name="Advise1" sheetId="28" r:id="rId20"/>
+    <sheet name="Law" sheetId="30" r:id="rId21"/>
+    <sheet name="Jobs" sheetId="33" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="717">
   <si>
     <t>البيت الكبير</t>
   </si>
@@ -189,9 +191,6 @@
     <t>Mind Reg</t>
   </si>
   <si>
-    <t>Ahmed Zayed</t>
-  </si>
-  <si>
     <t>الدرر السنية</t>
   </si>
   <si>
@@ -465,12 +464,6 @@
     <t>IT Ministry</t>
   </si>
   <si>
-    <t>فاتورة الكهرباء</t>
-  </si>
-  <si>
-    <t>فاتورة المياه</t>
-  </si>
-  <si>
     <t>احمد مختار</t>
   </si>
   <si>
@@ -963,9 +956,6 @@
     <t>جنزبيل / كمون</t>
   </si>
   <si>
-    <t>جبنة قريش</t>
-  </si>
-  <si>
     <t>خل تفاح</t>
   </si>
   <si>
@@ -1005,42 +995,21 @@
     <t>فلفل حار</t>
   </si>
   <si>
-    <t>جمبري</t>
-  </si>
-  <si>
-    <t>العصائر السكرية</t>
-  </si>
-  <si>
     <t>زيتون اخضر</t>
   </si>
   <si>
     <t>115/100gm</t>
   </si>
   <si>
-    <t>جزل</t>
-  </si>
-  <si>
-    <t>شاي</t>
-  </si>
-  <si>
     <t>الأرز / المكرونة</t>
   </si>
   <si>
     <t>لحوم</t>
   </si>
   <si>
-    <t>كركديه</t>
-  </si>
-  <si>
-    <t>لسان عصفور</t>
-  </si>
-  <si>
     <t>كبدة جملي</t>
   </si>
   <si>
-    <t>فواكة دون اضافة سكر</t>
-  </si>
-  <si>
     <t>اللبان</t>
   </si>
   <si>
@@ -1080,9 +1049,6 @@
     <t>سبانخ</t>
   </si>
   <si>
-    <t>بسلة</t>
-  </si>
-  <si>
     <t>فراخ</t>
   </si>
   <si>
@@ -1101,24 +1067,15 @@
     <t>K بوتاسيوم</t>
   </si>
   <si>
-    <t>فاصوليا بيضاء</t>
-  </si>
-  <si>
     <t>Ph فسفور</t>
   </si>
   <si>
-    <t>فاصوليا خضراء</t>
-  </si>
-  <si>
     <t>Mg مغانسيوم</t>
   </si>
   <si>
     <t>مكونات السلطة 1</t>
   </si>
   <si>
-    <t>لوبيا</t>
-  </si>
-  <si>
     <t>Carbohydrates</t>
   </si>
   <si>
@@ -1128,9 +1085,6 @@
     <t>12/100gm</t>
   </si>
   <si>
-    <t>ترمس</t>
-  </si>
-  <si>
     <t>Fats</t>
   </si>
   <si>
@@ -1138,9 +1092,6 @@
   </si>
   <si>
     <t>15/100gm</t>
-  </si>
-  <si>
-    <t>بطاطس مسلوقة</t>
   </si>
   <si>
     <t>Weight (W) X gm</t>
@@ -2013,13 +1964,6 @@
     <t>ممنوع الشاي بعد الاكل</t>
   </si>
   <si>
-    <t xml:space="preserve">100:400مل قهوة 
-يفضل بعد الظهر </t>
-  </si>
-  <si>
-    <t>اضافات مش كويسة للرجال</t>
-  </si>
-  <si>
     <t>ليمون</t>
   </si>
   <si>
@@ -2036,13 +1980,303 @@
   </si>
   <si>
     <t>فص ثوم يومي</t>
+  </si>
+  <si>
+    <t>الجبن المعلبة / الجبنة الرومي / المش / النستو</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100:400مل قهوة (يفضل بعد الظهر)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جبنة قريش / </t>
+  </si>
+  <si>
+    <t>كيري / شيدر لون فاتح / لبنة</t>
+  </si>
+  <si>
+    <t>مودزريلا/بارميزان/فيتا 100% طبيعي</t>
+  </si>
+  <si>
+    <t>اضافات مش كويسة للرجال (التستيرون)</t>
+  </si>
+  <si>
+    <t>Up Work</t>
+  </si>
+  <si>
+    <t>Freelancer</t>
+  </si>
+  <si>
+    <t>Fiverr</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>Toptal</t>
+  </si>
+  <si>
+    <t>crowded</t>
+  </si>
+  <si>
+    <t>Worxmart</t>
+  </si>
+  <si>
+    <t>Jooble</t>
+  </si>
+  <si>
+    <t>Flex Jobs</t>
+  </si>
+  <si>
+    <t>People/Hour</t>
+  </si>
+  <si>
+    <t>Best Company</t>
+  </si>
+  <si>
+    <t>Upwork Egypt</t>
+  </si>
+  <si>
+    <t>خمسات</t>
+  </si>
+  <si>
+    <t>مستقل</t>
+  </si>
+  <si>
+    <t>Freelance Me</t>
+  </si>
+  <si>
+    <t>Freelancer People</t>
+  </si>
+  <si>
+    <t>Learn With 
+Marie</t>
+  </si>
+  <si>
+    <t>وليد طه</t>
+  </si>
+  <si>
+    <t>فكرة 
+ صهيب الدسوقي</t>
+  </si>
+  <si>
+    <t>Learn With Marie TIKTOK</t>
+  </si>
+  <si>
+    <t>Mounis Firwana</t>
+  </si>
+  <si>
+    <t>أبو العباقره</t>
+  </si>
+  <si>
+    <t>Freelancing</t>
+  </si>
+  <si>
+    <t>لبن جوز الهند</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> حمص الشام</t>
+  </si>
+  <si>
+    <t>شاي / كركديه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لبن رايب || جاموسى </t>
+  </si>
+  <si>
+    <t>العصائر و عصائر الفواكه</t>
+  </si>
+  <si>
+    <t>بليلة - برتقال بالجزر</t>
+  </si>
+  <si>
+    <t>جزر / بسلة</t>
+  </si>
+  <si>
+    <t>فاصوليا بيضاء و خضراء</t>
+  </si>
+  <si>
+    <t>لوبيا / حمص</t>
+  </si>
+  <si>
+    <t>ترمس / ملوخية</t>
+  </si>
+  <si>
+    <t>جزل / بياض</t>
+  </si>
+  <si>
+    <t>جمبري مشوي</t>
+  </si>
+  <si>
+    <t>بروكلى / عدس</t>
+  </si>
+  <si>
+    <t>بسلة / كوسا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">قرنبيط  / بقدونس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">بقدونس </t>
+  </si>
+  <si>
+    <t xml:space="preserve">كابوتشة </t>
+  </si>
+  <si>
+    <t xml:space="preserve">حنطة </t>
+  </si>
+  <si>
+    <t>كمون</t>
+  </si>
+  <si>
+    <t>فول سودانى - بندق</t>
+  </si>
+  <si>
+    <t>لوز - كاجو - فستق - عين جمل</t>
+  </si>
+  <si>
+    <t>Tech Comp.</t>
+  </si>
+  <si>
+    <t>شركات (عامة)</t>
+  </si>
+  <si>
+    <t>[Training]</t>
+  </si>
+  <si>
+    <t>Wuzzuf</t>
+  </si>
+  <si>
+    <t>وظائف مصرية</t>
+  </si>
+  <si>
+    <t>Bayt</t>
+  </si>
+  <si>
+    <t>Egy Careers</t>
+  </si>
+  <si>
+    <t>Need Dev</t>
+  </si>
+  <si>
+    <t>Expertini</t>
+  </si>
+  <si>
+    <t>تنقيب</t>
+  </si>
+  <si>
+    <t>Seek</t>
+  </si>
+  <si>
+    <t>Jobs IN Deep</t>
+  </si>
+  <si>
+    <t>الحريفة</t>
+  </si>
+  <si>
+    <t>Good Firms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Help ! </t>
+  </si>
+  <si>
+    <t>Jobzella</t>
+  </si>
+  <si>
+    <t>indeed</t>
+  </si>
+  <si>
+    <t>Glassdoor</t>
+  </si>
+  <si>
+    <t>وظيفتك هنا</t>
+  </si>
+  <si>
+    <t>فرصنا</t>
+  </si>
+  <si>
+    <t>Free Jobs</t>
+  </si>
+  <si>
+    <t>Career Jet</t>
+  </si>
+  <si>
+    <t>Facebook| Groups</t>
+  </si>
+  <si>
+    <t>Jobs IN Delta</t>
+  </si>
+  <si>
+    <t>Jobeex</t>
+  </si>
+  <si>
+    <t>Job Master G</t>
+  </si>
+  <si>
+    <t>pgcareers</t>
+  </si>
+  <si>
+    <t>شغلني</t>
+  </si>
+  <si>
+    <t>Ngos Hub</t>
+  </si>
+  <si>
+    <t>الوظائف الحكومية</t>
+  </si>
+  <si>
+    <t>[Banks]</t>
+  </si>
+  <si>
+    <t>i Career Egy</t>
+  </si>
+  <si>
+    <t>Yalla Work</t>
+  </si>
+  <si>
+    <t>Pillars</t>
+  </si>
+  <si>
+    <t>Dr Jobs</t>
+  </si>
+  <si>
+    <t>موقع منحة</t>
+  </si>
+  <si>
+    <t>Muwuzzuf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Markets] </t>
+  </si>
+  <si>
+    <t>[Dev.Data]</t>
+  </si>
+  <si>
+    <t>سلسبيل السنهوري</t>
+  </si>
+  <si>
+    <t>اندرو اشرف</t>
+  </si>
+  <si>
+    <t>محمد سلامة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">وزارة القوي العاملة </t>
+  </si>
+  <si>
+    <t>GBS</t>
+  </si>
+  <si>
+    <t>IBS</t>
+  </si>
+  <si>
+    <t>دليل شركات</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="44" x14ac:knownFonts="1">
+  <fonts count="52" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2377,14 +2611,74 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1" tint="0.249977111117893"/>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2453,12 +2747,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2499,6 +2787,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="50">
     <border>
@@ -3160,7 +3472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3230,9 +3542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3240,12 +3549,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3263,22 +3566,13 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3308,25 +3602,25 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3339,7 +3633,7 @@
     <xf numFmtId="0" fontId="24" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3420,25 +3714,25 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3513,13 +3807,13 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -3622,9 +3916,6 @@
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3637,25 +3928,7 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3664,6 +3937,107 @@
     <xf numFmtId="0" fontId="15" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3682,6 +4056,48 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3694,31 +4110,7 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3727,7 +4119,7 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3781,7 +4173,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3793,19 +4185,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3814,10 +4206,10 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="15" fillId="16" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="15" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3829,44 +4221,29 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4639,8 +5016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.5703125" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4657,428 +5034,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="152">
+      <c r="A1" s="146">
         <v>1</v>
       </c>
-      <c r="B1" s="152">
+      <c r="B1" s="146">
         <v>2</v>
       </c>
-      <c r="C1" s="152" t="s">
-        <v>560</v>
-      </c>
-      <c r="D1" s="152" t="s">
-        <v>559</v>
-      </c>
-      <c r="E1" s="152" t="s">
-        <v>201</v>
-      </c>
-      <c r="F1" s="152" t="s">
-        <v>562</v>
-      </c>
-      <c r="G1" s="152" t="s">
-        <v>589</v>
-      </c>
-      <c r="H1" s="152" t="s">
-        <v>612</v>
-      </c>
-      <c r="I1" s="152" t="s">
-        <v>565</v>
+      <c r="C1" s="146" t="s">
+        <v>543</v>
+      </c>
+      <c r="D1" s="146" t="s">
+        <v>542</v>
+      </c>
+      <c r="E1" s="146" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" s="146" t="s">
+        <v>545</v>
+      </c>
+      <c r="G1" s="146" t="s">
+        <v>572</v>
+      </c>
+      <c r="H1" s="146" t="s">
+        <v>595</v>
+      </c>
+      <c r="I1" s="146" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="A2" s="147" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" s="147" t="s">
+        <v>547</v>
+      </c>
+      <c r="F2" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="147" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="147" t="s">
+        <v>162</v>
+      </c>
+      <c r="I2" s="146" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="146" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="194" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
+    </row>
+    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="147" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="147" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="147" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="147" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="147" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="147" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="147" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="146" t="s">
+        <v>649</v>
+      </c>
+      <c r="I5" s="146" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="194" t="s">
+        <v>544</v>
+      </c>
+      <c r="B6" s="194"/>
+      <c r="C6" s="194"/>
+      <c r="D6" s="194"/>
+      <c r="E6" s="194"/>
+      <c r="F6" s="194"/>
+      <c r="G6" s="194"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="194"/>
+    </row>
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="147" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="147" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="147" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="147" t="s">
+        <v>138</v>
+      </c>
+      <c r="F7" s="147" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" s="147" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="147" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="147" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="147" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="147" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" s="147" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" s="147" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="147" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="147" t="s">
+        <v>597</v>
+      </c>
+      <c r="I8" s="147" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="147" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="147" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9" s="147" t="s">
+        <v>150</v>
+      </c>
+      <c r="E9" s="147" t="s">
+        <v>155</v>
+      </c>
+      <c r="F9" s="147" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="H9" s="147" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="147" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="193" t="s">
+        <v>594</v>
+      </c>
+      <c r="B10" s="193"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+    </row>
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="147" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>190</v>
+      </c>
+      <c r="D11" s="147" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="147" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" s="147" t="s">
+        <v>194</v>
+      </c>
+      <c r="H11" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="I11" s="147" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="147" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="147" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="153" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="153" t="s">
-        <v>564</v>
-      </c>
-      <c r="F2" s="153" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="153" t="s">
-        <v>118</v>
-      </c>
-      <c r="H2" s="153" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="152" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
-        <v>137</v>
-      </c>
-      <c r="B3" s="153" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="153" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="153" t="s">
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="147"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="147"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="193" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="193"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+    </row>
+    <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="150" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="150" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="150" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="150" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="150" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="150" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="150" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="150" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="150" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="150" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="150" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="150" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="150" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="150" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="150" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="150" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="150" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="152" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="172" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="172"/>
-      <c r="C4" s="172"/>
-      <c r="D4" s="172"/>
-      <c r="E4" s="172"/>
-      <c r="F4" s="172"/>
-      <c r="G4" s="172"/>
-      <c r="H4" s="172"/>
-      <c r="I4" s="172"/>
-    </row>
-    <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="153" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="153" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="153" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" s="153" t="s">
-        <v>170</v>
-      </c>
-      <c r="F5" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="G5" s="153" t="s">
-        <v>172</v>
-      </c>
-      <c r="H5" s="153"/>
-      <c r="I5" s="152" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="172" t="s">
-        <v>561</v>
-      </c>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172"/>
-      <c r="F6" s="172"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-    </row>
-    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
-        <v>151</v>
-      </c>
-      <c r="B7" s="153" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="153" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="153" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="153" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="153" t="s">
-        <v>142</v>
-      </c>
-      <c r="G7" s="153" t="s">
-        <v>143</v>
-      </c>
-      <c r="H7" s="153" t="s">
-        <v>150</v>
-      </c>
-      <c r="I7" s="153" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153" t="s">
-        <v>149</v>
-      </c>
-      <c r="B8" s="153" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="153" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="153" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="153" t="s">
-        <v>161</v>
-      </c>
-      <c r="F8" s="153" t="s">
-        <v>147</v>
-      </c>
-      <c r="G8" s="153" t="s">
-        <v>148</v>
-      </c>
-      <c r="H8" s="153" t="s">
-        <v>614</v>
-      </c>
-      <c r="I8" s="153" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="153" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="153" t="s">
-        <v>162</v>
-      </c>
-      <c r="D9" s="153" t="s">
-        <v>153</v>
-      </c>
-      <c r="E9" s="153" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="153" t="s">
-        <v>156</v>
-      </c>
-      <c r="G9" s="153" t="s">
-        <v>159</v>
-      </c>
-      <c r="H9" s="153" t="s">
-        <v>160</v>
-      </c>
-      <c r="I9" s="153" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="171" t="s">
-        <v>611</v>
-      </c>
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-      <c r="I10" s="171"/>
-    </row>
-    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="153" t="s">
-        <v>192</v>
-      </c>
-      <c r="C11" s="153" t="s">
-        <v>193</v>
-      </c>
-      <c r="D11" s="153" t="s">
-        <v>194</v>
-      </c>
-      <c r="E11" s="153" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="153" t="s">
-        <v>196</v>
-      </c>
-      <c r="G11" s="153" t="s">
-        <v>197</v>
-      </c>
-      <c r="H11" s="153" t="s">
-        <v>198</v>
-      </c>
-      <c r="I11" s="153" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="153" t="s">
-        <v>200</v>
-      </c>
-      <c r="B12" s="153" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
-        <v>613</v>
-      </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-    </row>
-    <row r="14" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="156" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="156" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="156" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="156" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="156" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="156" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="156" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="156" t="s">
-        <v>74</v>
-      </c>
-      <c r="I14" s="156" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="156" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="156" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="156" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="156" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="156" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="156" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="156" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="156" t="s">
-        <v>60</v>
-      </c>
-      <c r="I15" s="156" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="156" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="156" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="156" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="156" t="s">
+      <c r="C16" s="150" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="150" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="150" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="156" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="156" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="156" t="s">
-        <v>50</v>
-      </c>
-      <c r="H16" s="157" t="s">
+      <c r="F16" s="150" t="s">
         <v>44</v>
+      </c>
+      <c r="G16" s="150" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="150" t="s">
+        <v>52</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="171" t="s">
-        <v>613</v>
-      </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
+      <c r="A17" s="193" t="s">
+        <v>596</v>
+      </c>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
     </row>
     <row r="18" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="156" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="156" t="s">
+      <c r="A18" s="150" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="156" t="s">
+      <c r="B18" s="150" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="156" t="s">
+      <c r="C18" s="150" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="156" t="s">
+      <c r="D18" s="150" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="156" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="156" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="156" t="s">
+      <c r="E18" s="150" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="150" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="150" t="s">
         <v>48</v>
       </c>
-      <c r="I18" s="156" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="156" t="s">
-        <v>53</v>
-      </c>
-    </row>
+      <c r="H18" s="150" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" s="150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
@@ -5094,114 +5465,263 @@
     <hyperlink ref="F1" location="En!A1" display="English" xr:uid="{8136A837-048F-466C-B9D8-1423BE88CE20}"/>
     <hyperlink ref="G1" r:id="rId2" display="../Jobs.htm" xr:uid="{76A456D3-FA32-4765-AED9-E883E86A1CED}"/>
     <hyperlink ref="I1" location="EG!A1" display="[Egy Official]" xr:uid="{6C97A8A7-80E1-4075-BE65-238E19B621B1}"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://tipyan.com/" xr:uid="{91F68607-36F1-4C78-8045-1EDAE8118191}"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://tipyan.com/" xr:uid="{91F68607-36F1-4C78-8045-1EDAE8118191}"/>
     <hyperlink ref="G2" r:id="rId4" display="https://www.youtube.com/c/WalidIssaPlus/videos" xr:uid="{ABFC01D4-61BD-4D4D-B13A-5FD4BDFFC1BA}"/>
-    <hyperlink ref="D2" r:id="rId5" display="https://www.stjegypt.com/" xr:uid="{2E0073C7-3A84-484C-ADB4-1875E46919CF}"/>
+    <hyperlink ref="H2" r:id="rId5" display="https://www.stjegypt.com/" xr:uid="{2E0073C7-3A84-484C-ADB4-1875E46919CF}"/>
     <hyperlink ref="C2" r:id="rId6" display="https://www.youtube.com/@aljazeeradocumentary/videos" xr:uid="{F7411A56-DD7F-43EC-9CD1-E8B209BA0477}"/>
     <hyperlink ref="B2" r:id="rId7" display="https://www.youtube.com/@dwarabic/videos" xr:uid="{F56A765C-F084-41CE-8B17-BA93D65EBB73}"/>
     <hyperlink ref="A2" r:id="rId8" display="https://www.youtube.com/@dwdocarabia/videos" xr:uid="{3D08B856-FE3C-4DB0-8693-4D8AA801EC5D}"/>
     <hyperlink ref="F2" r:id="rId9" display="https://mcit.gov.eg/" xr:uid="{13083B6B-62C6-4508-977C-252D35DE35D8}"/>
-    <hyperlink ref="H2" r:id="rId10" display="https://ncedc.gov.eg/Home/Invoice" xr:uid="{9C581524-E056-40AE-89CD-431E9667EA73}"/>
-    <hyperlink ref="A3" r:id="rId11" display="http://www.gcwc.com.eg/" xr:uid="{FDD6EAF8-462A-4E72-8659-0FF0A92E26F5}"/>
     <hyperlink ref="B1:D1" location="'$$'!A1" display="'$$'!A1" xr:uid="{36CA0706-DD86-4B1D-A60E-4D98853504F5}"/>
-    <hyperlink ref="C1" r:id="rId12" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
-    <hyperlink ref="A1" r:id="rId13" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
+    <hyperlink ref="C1" r:id="rId10" xr:uid="{F7BC58C6-4D7F-46A5-B0B6-E4E00776BBAC}"/>
+    <hyperlink ref="A1" r:id="rId11" display="..\1.html" xr:uid="{10F17F0F-B58E-460E-A563-CB5410414046}"/>
     <hyperlink ref="D1" location="Home!A1" display="Real State" xr:uid="{8DC433BC-CEA1-42E3-BB48-DDDCCCF53C86}"/>
     <hyperlink ref="I3" location="Lib!A1" display="Library" xr:uid="{1B3F76CA-2136-45B1-8723-4D2B619E52BF}"/>
     <hyperlink ref="E1" location="Food!A1" display="Body" xr:uid="{93D3B2A3-E9BA-49D3-B3E5-952B4074149D}"/>
-    <hyperlink ref="A5" r:id="rId14" display="https://www.facebook.com/marketplace" xr:uid="{1F1B89DB-72E8-4B08-956B-481A326E8718}"/>
-    <hyperlink ref="B5" r:id="rId15" display="https://my.opensooq.com/" xr:uid="{FEB2963B-9392-436E-A10D-EDEE996C0D4E}"/>
-    <hyperlink ref="C5" r:id="rId16" display="https://www.dubizzle.com.eg/" xr:uid="{4BECE79C-4CB5-46F1-8B23-016BB1369371}"/>
-    <hyperlink ref="D5" r:id="rId17" display="https://eg.waseet.net/ar" xr:uid="{8D32B0A1-D400-417B-B7CE-6BD3137D7569}"/>
-    <hyperlink ref="E5" r:id="rId18" display="https://www.bezaat.com/egypt/cairo" xr:uid="{FE15EB89-7C4E-4477-82F3-09A3341DD129}"/>
-    <hyperlink ref="F5" r:id="rId19" display="https://www.amazon.eg/" xr:uid="{8C57597A-C388-4AD3-8703-79DD842D535F}"/>
-    <hyperlink ref="G5" r:id="rId20" display="https://www.jumia.com.eg/ar" xr:uid="{496432C7-DA45-4A8E-A84C-8885C7FB005C}"/>
-    <hyperlink ref="B7" r:id="rId21" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
-    <hyperlink ref="C7" r:id="rId22" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
-    <hyperlink ref="D7" r:id="rId23" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
-    <hyperlink ref="E7" r:id="rId24" display="https://www.facebook.com/EducationClinicRA" xr:uid="{9C199B90-A06F-47E3-9FB7-0EA2EA121145}"/>
-    <hyperlink ref="F7" r:id="rId25" display="https://www.facebook.com/mohamedkhaled.nigm" xr:uid="{7B0509D8-C7DE-4120-9DC1-0722BB0C34EC}"/>
-    <hyperlink ref="G7" r:id="rId26" display="https://www.facebook.com/sherifyasserofficial" xr:uid="{FD0F9C51-E129-4EEF-A055-E8E97161C34A}"/>
-    <hyperlink ref="B8" r:id="rId27" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
-    <hyperlink ref="C8" r:id="rId28" display="https://www.youtube.com/user/engmahmoudkhaled/videos" xr:uid="{6F77BAF1-4E99-4FEB-BF61-CE31271FB83F}"/>
-    <hyperlink ref="D8" r:id="rId29" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
-    <hyperlink ref="F8" r:id="rId30" display="https://www.facebook.com/profile.php?id=100014234160493" xr:uid="{59554BDC-2CF2-4555-9C81-2163955C30BF}"/>
-    <hyperlink ref="G8" r:id="rId31" display="https://www.facebook.com/KarimMesallamProfile" xr:uid="{6ED8BD85-AC10-4845-BBA3-4BAA07B00703}"/>
-    <hyperlink ref="A8" r:id="rId32" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
-    <hyperlink ref="H7" r:id="rId33" display="https://www.youtube.com/@AmrAbdolaziz/videos" xr:uid="{9EC6914D-820F-4DAD-8CC7-BB92DD23D833}"/>
-    <hyperlink ref="A7" r:id="rId34" display="https://www.facebook.com/Prof.Dr.MadyElbahri" xr:uid="{4B4DCAD2-0386-4560-BC72-2932D5A7A3A6}"/>
-    <hyperlink ref="B9" r:id="rId35" display="https://www.facebook.com/emad.e.sherif" xr:uid="{7ED31B22-5EF7-4CFA-B499-F059643295C0}"/>
-    <hyperlink ref="D9" r:id="rId36" display="https://www.facebook.com/maysam.magdy.56?mibextid=ZbWKwL" xr:uid="{82BEC16A-B970-4C2A-BE3C-8A9786AD8C2C}"/>
-    <hyperlink ref="A9" r:id="rId37" display="https://www.facebook.com/ashyahia" xr:uid="{9501F0C8-6925-4AE1-A7DB-8D8E449E24AC}"/>
-    <hyperlink ref="I8" r:id="rId38" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
-    <hyperlink ref="F9" r:id="rId39" display="https://www.youtube.com/@bassemelgarhi/videos" xr:uid="{9FB181FE-62BB-4CCB-A930-0CE3CF1568B8}"/>
-    <hyperlink ref="I9" r:id="rId40" display="https://www.youtube.com/@WalidTaha/videos" xr:uid="{EB6FE786-E465-40A7-B27A-C305EEB716C7}"/>
-    <hyperlink ref="E9" r:id="rId41" display="https://www.facebook.com/ameer.sherif" xr:uid="{A571CC42-51C0-4046-9DFF-8B57CF063C05}"/>
-    <hyperlink ref="G9" r:id="rId42" display="https://www.facebook.com/muhammed.faheim" xr:uid="{A6CBBD5C-DE05-4738-BC8D-F1886CF3E6F2}"/>
-    <hyperlink ref="H9" r:id="rId43" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
-    <hyperlink ref="C9" r:id="rId44" display="https://www.facebook.com/Dr.Sabry.M" xr:uid="{26FDD1C5-D1AB-4BE8-9507-63E814295A0F}"/>
-    <hyperlink ref="B3" r:id="rId45" display="https://www.pinterest.com/" xr:uid="{0709D5F9-F9BD-4AA6-872A-907B922C04C6}"/>
-    <hyperlink ref="I7" r:id="rId46" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
-    <hyperlink ref="A11" r:id="rId47" display="https://www.youtube.com/c/abdelslammohamed777/videos" xr:uid="{1E517DBB-9F4A-44ED-BEB9-6218D6E1CA47}"/>
-    <hyperlink ref="B11" r:id="rId48" display="https://www.youtube.com/channel/UCNNJ9XBAqm9_ZXTazI3dWGg/videos" xr:uid="{CDD17A34-BFC7-4FE9-9B3C-4D65CBE3103B}"/>
-    <hyperlink ref="C11" r:id="rId49" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
-    <hyperlink ref="D11" r:id="rId50" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
-    <hyperlink ref="E11" r:id="rId51" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
-    <hyperlink ref="F11" r:id="rId52" display="https://www.youtube.com/c/DrAhmedkamelIsamail/videos" xr:uid="{E50A2C6B-F74A-41BF-8E83-2C2108958EE7}"/>
-    <hyperlink ref="G11" r:id="rId53" display="https://www.youtube.com/@MedicalStreaming/videos" xr:uid="{BF756794-FC63-4430-A930-CE54D2ABFE32}"/>
-    <hyperlink ref="H11" r:id="rId54" display="https://www.youtube.com/@goodaclinic/videos" xr:uid="{1105C289-542D-456F-981D-9087EA6EADAA}"/>
-    <hyperlink ref="I11" r:id="rId55" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
-    <hyperlink ref="A12" r:id="rId56" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
-    <hyperlink ref="B12" r:id="rId57" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
+    <hyperlink ref="A5" r:id="rId12" display="https://www.facebook.com/marketplace" xr:uid="{1F1B89DB-72E8-4B08-956B-481A326E8718}"/>
+    <hyperlink ref="B5" r:id="rId13" display="https://my.opensooq.com/" xr:uid="{FEB2963B-9392-436E-A10D-EDEE996C0D4E}"/>
+    <hyperlink ref="C5" r:id="rId14" display="https://www.dubizzle.com.eg/" xr:uid="{4BECE79C-4CB5-46F1-8B23-016BB1369371}"/>
+    <hyperlink ref="D5" r:id="rId15" display="https://eg.waseet.net/ar" xr:uid="{8D32B0A1-D400-417B-B7CE-6BD3137D7569}"/>
+    <hyperlink ref="E5" r:id="rId16" display="https://www.bezaat.com/egypt/cairo" xr:uid="{FE15EB89-7C4E-4477-82F3-09A3341DD129}"/>
+    <hyperlink ref="F5" r:id="rId17" display="https://www.amazon.eg/" xr:uid="{8C57597A-C388-4AD3-8703-79DD842D535F}"/>
+    <hyperlink ref="G5" r:id="rId18" display="https://www.jumia.com.eg/ar" xr:uid="{496432C7-DA45-4A8E-A84C-8885C7FB005C}"/>
+    <hyperlink ref="B7" r:id="rId19" display="https://www.facebook.com/A.Mo5tar" xr:uid="{56713FF6-78DF-4AF9-A3DE-20F38F456439}"/>
+    <hyperlink ref="C7" r:id="rId20" display="https://www.facebook.com/bashmohandesx" xr:uid="{D7762E36-E8AA-428C-9F32-1E7EDED3C576}"/>
+    <hyperlink ref="D7" r:id="rId21" display="https://www.facebook.com/tarek.elkholy.73" xr:uid="{2E039EBF-4F1E-49BD-AEEC-80190C798922}"/>
+    <hyperlink ref="E7" r:id="rId22" display="https://www.facebook.com/EducationClinicRA" xr:uid="{9C199B90-A06F-47E3-9FB7-0EA2EA121145}"/>
+    <hyperlink ref="F7" r:id="rId23" display="https://www.facebook.com/mohamedkhaled.nigm" xr:uid="{7B0509D8-C7DE-4120-9DC1-0722BB0C34EC}"/>
+    <hyperlink ref="G7" r:id="rId24" display="https://www.facebook.com/sherifyasserofficial" xr:uid="{FD0F9C51-E129-4EEF-A055-E8E97161C34A}"/>
+    <hyperlink ref="B8" r:id="rId25" display="https://www.facebook.com/mohamedsayedalyhassan" xr:uid="{A0590324-D380-402F-BB13-F20E61254BDA}"/>
+    <hyperlink ref="C8" r:id="rId26" display="https://www.youtube.com/user/engmahmoudkhaled/videos" xr:uid="{6F77BAF1-4E99-4FEB-BF61-CE31271FB83F}"/>
+    <hyperlink ref="D8" r:id="rId27" display="https://aalwhebey.com/" xr:uid="{3FF4FC65-344D-43A7-A19F-8BE2B814A577}"/>
+    <hyperlink ref="F8" r:id="rId28" display="https://www.facebook.com/profile.php?id=100014234160493" xr:uid="{59554BDC-2CF2-4555-9C81-2163955C30BF}"/>
+    <hyperlink ref="G8" r:id="rId29" display="https://www.facebook.com/KarimMesallamProfile" xr:uid="{6ED8BD85-AC10-4845-BBA3-4BAA07B00703}"/>
+    <hyperlink ref="A8" r:id="rId30" display="https://www.facebook.com/mahmoud.dafirenze" xr:uid="{C02E9CBB-06B1-4007-A3BD-0D0EE10F58F3}"/>
+    <hyperlink ref="H7" r:id="rId31" display="https://www.youtube.com/@AmrAbdolaziz/videos" xr:uid="{9EC6914D-820F-4DAD-8CC7-BB92DD23D833}"/>
+    <hyperlink ref="A7" r:id="rId32" display="https://www.facebook.com/Prof.Dr.MadyElbahri" xr:uid="{4B4DCAD2-0386-4560-BC72-2932D5A7A3A6}"/>
+    <hyperlink ref="B9" r:id="rId33" display="https://www.facebook.com/emad.e.sherif" xr:uid="{7ED31B22-5EF7-4CFA-B499-F059643295C0}"/>
+    <hyperlink ref="D9" r:id="rId34" display="https://www.facebook.com/maysam.magdy.56?mibextid=ZbWKwL" xr:uid="{82BEC16A-B970-4C2A-BE3C-8A9786AD8C2C}"/>
+    <hyperlink ref="A9" r:id="rId35" display="https://www.facebook.com/ashyahia" xr:uid="{9501F0C8-6925-4AE1-A7DB-8D8E449E24AC}"/>
+    <hyperlink ref="I8" r:id="rId36" display="https://www.facebook.com/hassanbenabbed1325" xr:uid="{B896A092-B9D7-4D3C-A366-D9E4FEEDEA5A}"/>
+    <hyperlink ref="F9" r:id="rId37" display="https://www.youtube.com/@bassemelgarhi/videos" xr:uid="{9FB181FE-62BB-4CCB-A930-0CE3CF1568B8}"/>
+    <hyperlink ref="I9" r:id="rId38" display="https://www.youtube.com/@WalidTaha/videos" xr:uid="{EB6FE786-E465-40A7-B27A-C305EEB716C7}"/>
+    <hyperlink ref="E9" r:id="rId39" display="https://www.facebook.com/ameer.sherif" xr:uid="{A571CC42-51C0-4046-9DFF-8B57CF063C05}"/>
+    <hyperlink ref="G9" r:id="rId40" display="https://www.facebook.com/muhammed.faheim" xr:uid="{A6CBBD5C-DE05-4738-BC8D-F1886CF3E6F2}"/>
+    <hyperlink ref="H9" r:id="rId41" display="https://www.facebook.com/Mohamednadine" xr:uid="{7FC29B47-9849-4874-B721-DDE6C511FDBE}"/>
+    <hyperlink ref="C9" r:id="rId42" display="https://www.facebook.com/Dr.Sabry.M" xr:uid="{26FDD1C5-D1AB-4BE8-9507-63E814295A0F}"/>
+    <hyperlink ref="D2" r:id="rId43" display="https://www.pinterest.com/" xr:uid="{0709D5F9-F9BD-4AA6-872A-907B922C04C6}"/>
+    <hyperlink ref="I7" r:id="rId44" display="https://www.facebook.com/tamer.ahmed.1426" xr:uid="{F3CBB8E0-8660-466E-9025-815C32DEEFD4}"/>
+    <hyperlink ref="A11" r:id="rId45" display="https://www.youtube.com/c/abdelslammohamed777/videos" xr:uid="{1E517DBB-9F4A-44ED-BEB9-6218D6E1CA47}"/>
+    <hyperlink ref="B11" r:id="rId46" display="https://www.youtube.com/channel/UCNNJ9XBAqm9_ZXTazI3dWGg/videos" xr:uid="{CDD17A34-BFC7-4FE9-9B3C-4D65CBE3103B}"/>
+    <hyperlink ref="C11" r:id="rId47" display="https://www.youtube.com/channel/UCGS6N6QZnW8bZIWf23wdPKQ/videos" xr:uid="{21433F7B-3803-4CFD-BA81-60D0323C6237}"/>
+    <hyperlink ref="D11" r:id="rId48" display="https://www.youtube.com/channel/UCry-8xhMsrlesB7lq3qiL2w/videos" xr:uid="{D62728C0-F889-434E-ABC1-1C151AC8E748}"/>
+    <hyperlink ref="E11" r:id="rId49" display="https://www.youtube.com/c/Pharmastan" xr:uid="{3A7A93FA-AAAA-497B-9D9C-1527BE396053}"/>
+    <hyperlink ref="F11" r:id="rId50" display="https://www.youtube.com/c/DrAhmedkamelIsamail/videos" xr:uid="{E50A2C6B-F74A-41BF-8E83-2C2108958EE7}"/>
+    <hyperlink ref="G11" r:id="rId51" display="https://www.youtube.com/@MedicalStreaming/videos" xr:uid="{BF756794-FC63-4430-A930-CE54D2ABFE32}"/>
+    <hyperlink ref="H11" r:id="rId52" display="https://www.youtube.com/@goodaclinic/videos" xr:uid="{1105C289-542D-456F-981D-9087EA6EADAA}"/>
+    <hyperlink ref="I11" r:id="rId53" display="https://www.youtube.com/@goudaawaad/videos" xr:uid="{CEA748F8-F3B3-41EE-B40F-68CB56527B07}"/>
+    <hyperlink ref="A12" r:id="rId54" display="https://www.youtube.com/@Eldoctoor/videos" xr:uid="{03267A29-272E-4CA5-A4B8-799FA1F435E2}"/>
+    <hyperlink ref="B12" r:id="rId55" display="https://www.youtube.com/@SamehGhazy/videos" xr:uid="{CBBC26CB-2178-485D-9EA7-51003DE69F7C}"/>
     <hyperlink ref="H1" location="Marketing!A1" display="Marketing" xr:uid="{6BF12EBD-4D0A-4E55-A0D3-CC02663B48AC}"/>
-    <hyperlink ref="A14" r:id="rId58" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
-    <hyperlink ref="A18" r:id="rId59" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
-    <hyperlink ref="B18" r:id="rId60" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
-    <hyperlink ref="F14" r:id="rId61" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
-    <hyperlink ref="D14" r:id="rId62" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
-    <hyperlink ref="D18" r:id="rId63" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
-    <hyperlink ref="E18" r:id="rId64" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
-    <hyperlink ref="H14" r:id="rId65" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
-    <hyperlink ref="B14" r:id="rId66" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
-    <hyperlink ref="H15" r:id="rId67" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
-    <hyperlink ref="C16" r:id="rId68" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
-    <hyperlink ref="C18" r:id="rId69" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
-    <hyperlink ref="I14" r:id="rId70" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
-    <hyperlink ref="E14" r:id="rId71" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
-    <hyperlink ref="B15" r:id="rId72" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
-    <hyperlink ref="A15" r:id="rId73" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
-    <hyperlink ref="C15" r:id="rId74" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
-    <hyperlink ref="G15" r:id="rId75" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
-    <hyperlink ref="D15" r:id="rId76" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
-    <hyperlink ref="E15" r:id="rId77" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
-    <hyperlink ref="F15" r:id="rId78" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
-    <hyperlink ref="B16" r:id="rId79" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
-    <hyperlink ref="A16" r:id="rId80" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
-    <hyperlink ref="G14" r:id="rId81" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
-    <hyperlink ref="A19" r:id="rId82" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
-    <hyperlink ref="F18" r:id="rId83" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
-    <hyperlink ref="I15" r:id="rId84" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
-    <hyperlink ref="I18" r:id="rId85" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
-    <hyperlink ref="G16" r:id="rId86" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
-    <hyperlink ref="G18" r:id="rId87" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
-    <hyperlink ref="H18" r:id="rId88" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
-    <hyperlink ref="E16" r:id="rId89" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
-    <hyperlink ref="D16" r:id="rId90" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
-    <hyperlink ref="F16" r:id="rId91" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
-    <hyperlink ref="H16" r:id="rId92" display="https://www.youtube.com/@AhmedZayedChannel/videos" xr:uid="{42F1FFDD-6608-4B3B-A815-018A4494CAC7}"/>
-    <hyperlink ref="I16" r:id="rId93" display="https://www.facebook.com/MINDREL" xr:uid="{AB42180A-5C61-4501-B694-F11C557EE2C3}"/>
-    <hyperlink ref="C14" r:id="rId94" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
+    <hyperlink ref="A14" r:id="rId56" display="https://www.youtube.com/c/eyadqunaibi/videos" xr:uid="{43B8E2DC-F96C-4340-8F6C-746048EB98D5}"/>
+    <hyperlink ref="A18" r:id="rId57" display="https://www.youtube.com/channel/UCLj8UFOcdFrvlh24Lw7jrgA/videos" xr:uid="{4724DCEE-47D5-4835-98FB-C1E7FC67F74B}"/>
+    <hyperlink ref="B18" r:id="rId58" display="https://www.youtube.com/channel/UCnc4DP-ohpBFg51ogObyMeQ/videos" xr:uid="{1B054AE7-7906-434B-B29D-A8B2DE30A3E9}"/>
+    <hyperlink ref="F14" r:id="rId59" display="https://www.youtube.com/c/Belaqltube/videos" xr:uid="{C07F1275-C635-416E-AB7E-4E1EB1F702E5}"/>
+    <hyperlink ref="D14" r:id="rId60" display="https://www.youtube.com/channel/UCWt3O9HfHs8-LqBFnRj1wZw/videos" xr:uid="{C4545AEB-FFD3-4827-A511-EB25ECC59D0F}"/>
+    <hyperlink ref="D18" r:id="rId61" display="https://www.youtube.com/user/Albyyinah/videos" xr:uid="{BB97F436-79C2-4B1D-96AB-FA91EAB37F50}"/>
+    <hyperlink ref="E18" r:id="rId62" display="https://www.youtube.com/channel/UCMr8VnDU1gojDgzlgkDisxA/videos" xr:uid="{7765CC63-34B1-4A80-97AD-5E82997C8FA1}"/>
+    <hyperlink ref="H14" r:id="rId63" display="https://www.youtube.com/channel/UCASAOTD6fMPEg8jmO4nPblQ/videos" xr:uid="{B50BFE26-BAA2-46C4-BB2F-D1894EB7B1BA}"/>
+    <hyperlink ref="B14" r:id="rId64" display="https://www.youtube.com/c/MakanyWorld/videos" xr:uid="{A826D7B2-004B-4B5D-BCDC-ECABF41494AB}"/>
+    <hyperlink ref="H15" r:id="rId65" display="https://www.youtube.com/channel/UC-GsjCkUB5ndNryHMDdYfTA/videos" xr:uid="{031EB79A-6FDA-49BB-A13A-AB0CC7801A4E}"/>
+    <hyperlink ref="C16" r:id="rId66" display="https://www.youtube.com/c/BridgesfoundationOrgun/videos" xr:uid="{BD93C02D-6219-45AE-A7E8-E54AD79E6B2F}"/>
+    <hyperlink ref="C18" r:id="rId67" display="https://www.youtube.com/c/Shuounislamiya/videos" xr:uid="{EBE73D93-A083-48DF-A076-C41368BFD3C2}"/>
+    <hyperlink ref="I14" r:id="rId68" display="https://www.facebook.com/3laaHamed" xr:uid="{81B23A21-B187-41D0-A0AE-A59E52F15006}"/>
+    <hyperlink ref="E14" r:id="rId69" display="https://www.youtube.com/user/alsayedtvch1/videos" xr:uid="{2A6AADBD-9487-4FBA-87BD-09D7BAA42AC8}"/>
+    <hyperlink ref="B15" r:id="rId70" display="https://www.youtube.com/channel/UCScQCjryYxfCeLFdmmMm1EA" xr:uid="{40863D37-1106-4AFA-BADE-261CEED63668}"/>
+    <hyperlink ref="A15" r:id="rId71" display="https://www.youtube.com/user/YasserHozaimy/videos" xr:uid="{0499C3A8-A23B-4BE8-9712-482E670336ED}"/>
+    <hyperlink ref="C15" r:id="rId72" display="https://www.youtube.com/c/AbdulRazapAlbadr2345/videos" xr:uid="{CE8ED2CC-4E69-40A1-965E-9F5541346BA3}"/>
+    <hyperlink ref="G15" r:id="rId73" display="https://www.youtube.com/@Alkulify1/videos" xr:uid="{793D43BE-7408-439E-995B-2F4BE34C6CD1}"/>
+    <hyperlink ref="D15" r:id="rId74" display="https://www.youtube.com/user/FiqhShaf3i/videos" xr:uid="{252E0DCC-C302-4866-9B8A-F0A58CC25BBD}"/>
+    <hyperlink ref="E15" r:id="rId75" display="https://www.youtube.com/@DrAlSuwaidan/videos" xr:uid="{29BAC375-1C3A-43C4-BEA8-15E99109F1EB}"/>
+    <hyperlink ref="F15" r:id="rId76" display="https://www.youtube.com/@samirmoustafa/videos" xr:uid="{6822F3B1-BEC2-490B-B408-2DA83A89C2F8}"/>
+    <hyperlink ref="B16" r:id="rId77" display="https://www.youtube.com/@osamaoa24/videos" xr:uid="{5AE429ED-AD32-43CB-9F85-15DF00582C06}"/>
+    <hyperlink ref="A16" r:id="rId78" display="https://www.youtube.com/@SamehElgendawey/videos" xr:uid="{E8F9123C-B974-49BF-8EF1-3301D25DCAE2}"/>
+    <hyperlink ref="G14" r:id="rId79" display="https://www.youtube.com/@Sha5bata/videos" xr:uid="{C17148A2-EB32-45B5-B06B-B0A8F4239BBB}"/>
+    <hyperlink ref="H16" r:id="rId80" display="https://www.islamweb.net/ar" xr:uid="{C60F5FED-8955-4431-8E67-C83830E8F334}"/>
+    <hyperlink ref="F18" r:id="rId81" display="https://islamqa.info/ar" xr:uid="{9CC82866-8189-48AB-8574-1F9947976B53}"/>
+    <hyperlink ref="I15" r:id="rId82" display="https://www.youtube.com/channel/UCAN2kEVfIk0EC4w4hqhiQUw/videos" xr:uid="{759DCF15-70B5-47D4-A149-173802F53626}"/>
+    <hyperlink ref="I18" r:id="rId83" display="https://www.youtube.com/c/Uslameyat1/videos" xr:uid="{D68F1E5D-7FC2-4245-A668-B22AB0BA4D1D}"/>
+    <hyperlink ref="G16" r:id="rId84" display="https://www.youtube.com/@DRMohamedHedayah/videos" xr:uid="{BC00AC04-4BFC-446F-88A6-AAE4039BCE1A}"/>
+    <hyperlink ref="G18" r:id="rId85" display="https://www.facebook.com/Islam.anti.atheism" xr:uid="{7CA107BB-12D0-40F1-B227-EECA5EDA3C9D}"/>
+    <hyperlink ref="H18" r:id="rId86" display="https://islamhouse.com/ar/favorites/ar/1" xr:uid="{139EC5EC-86E4-4ED8-A5DE-77D728A63F67}"/>
+    <hyperlink ref="E16" r:id="rId87" display="https://www.facebook.com/AcademyZAD" xr:uid="{18076CB2-D37A-4E6C-B0FF-63A45481BA72}"/>
+    <hyperlink ref="D16" r:id="rId88" display="https://www.youtube.com/@mekameleen/playlists" xr:uid="{51261E04-35A9-4E94-90C4-1855B85E3A3E}"/>
+    <hyperlink ref="F16" r:id="rId89" display="https://dorar.net/" xr:uid="{5C263283-4D18-46F9-BA83-A31D6A5E56D1}"/>
+    <hyperlink ref="I16" r:id="rId90" display="https://www.facebook.com/MINDREL" xr:uid="{AB42180A-5C61-4501-B694-F11C557EE2C3}"/>
+    <hyperlink ref="C14" r:id="rId91" display="https://www.youtube.com/@Archive_Makany_World/videos" xr:uid="{EF71FB90-0CA3-4064-919B-CC073FE46870}"/>
     <hyperlink ref="I2" location="Law!A1" display="[Law]" xr:uid="{0C0AE0C9-22E6-439D-8683-807AF6C40C13}"/>
-    <hyperlink ref="C3" r:id="rId95" xr:uid="{1DC125BE-9FE3-4212-A782-455F54E255BB}"/>
-    <hyperlink ref="H8" r:id="rId96" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
-    <hyperlink ref="E8" r:id="rId97" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
+    <hyperlink ref="B3" r:id="rId92" xr:uid="{1DC125BE-9FE3-4212-A782-455F54E255BB}"/>
+    <hyperlink ref="H8" r:id="rId93" xr:uid="{48D753AC-2BA0-4863-B820-055DD46FB9E8}"/>
+    <hyperlink ref="E8" r:id="rId94" display="https://www.facebook.com/hesham.haroon.94" xr:uid="{7304525C-EC99-4908-993A-E80FA47338B7}"/>
+    <hyperlink ref="H5" location="Freelaning!A1" display="Freelancing" xr:uid="{00F80706-582F-4B8C-B85C-742129B840A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId98"/>
+  <pageSetup orientation="portrait" r:id="rId95"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407928FC-3F3D-40A9-A482-DAE5DC3CE4C9}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.42578125" defaultRowHeight="104.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="183" t="s">
+        <v>627</v>
+      </c>
+      <c r="B1" s="183" t="s">
+        <v>628</v>
+      </c>
+      <c r="C1" s="183" t="s">
+        <v>629</v>
+      </c>
+      <c r="D1" s="183" t="s">
+        <v>630</v>
+      </c>
+      <c r="E1" s="183" t="s">
+        <v>631</v>
+      </c>
+      <c r="F1" s="183" t="s">
+        <v>632</v>
+      </c>
+      <c r="G1" s="183" t="s">
+        <v>633</v>
+      </c>
+      <c r="H1" s="184" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="183" t="s">
+        <v>634</v>
+      </c>
+      <c r="B2" s="183" t="s">
+        <v>635</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>636</v>
+      </c>
+      <c r="D2" s="185"/>
+      <c r="E2" s="183" t="s">
+        <v>637</v>
+      </c>
+      <c r="F2" s="186"/>
+      <c r="G2" s="187" t="s">
+        <v>638</v>
+      </c>
+      <c r="H2" s="188"/>
+    </row>
+    <row r="3" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="183" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="183" t="s">
+        <v>640</v>
+      </c>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="183" t="s">
+        <v>641</v>
+      </c>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="188"/>
+    </row>
+    <row r="4" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="217" t="s">
+        <v>642</v>
+      </c>
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="186"/>
+      <c r="G4" s="186"/>
+      <c r="H4" s="188"/>
+    </row>
+    <row r="5" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="189" t="s">
+        <v>643</v>
+      </c>
+      <c r="B5" s="189" t="s">
+        <v>644</v>
+      </c>
+      <c r="C5" s="189" t="s">
+        <v>645</v>
+      </c>
+      <c r="D5" s="190" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="191"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="188"/>
+    </row>
+    <row r="6" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="189" t="s">
+        <v>646</v>
+      </c>
+      <c r="B6" s="191" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6" s="191"/>
+      <c r="D6" s="191"/>
+      <c r="E6" s="190" t="s">
+        <v>648</v>
+      </c>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:E4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.upwork.com/" xr:uid="{194289BA-D4FE-4BE0-98AC-FDC5F2E2957B}"/>
+    <hyperlink ref="B1" r:id="rId2" display="https://www.freelancer.com/" xr:uid="{644CAFC0-A360-40EB-8BDC-EB8348062037}"/>
+    <hyperlink ref="C1" r:id="rId3" display="https://www.fiverr.com/" xr:uid="{44C1E827-72A8-4260-854A-1F14EB479DB9}"/>
+    <hyperlink ref="D1" r:id="rId4" display="https://www.guru.com/" xr:uid="{37A3D9E9-1FEF-4117-81B9-BF78E41756FB}"/>
+    <hyperlink ref="E2" r:id="rId5" display="https://bestcompany.com/" xr:uid="{28B56255-A17D-486C-B5F8-CD0ED6263159}"/>
+    <hyperlink ref="E3" r:id="rId6" display="http://www.freelanceme.net/" xr:uid="{4E15DB8B-53EF-44CA-8AF6-7E85945C73F2}"/>
+    <hyperlink ref="A3" r:id="rId7" display="https://khamsat.com/" xr:uid="{8D2EB249-0E8D-4918-8137-732070DB621F}"/>
+    <hyperlink ref="E1" r:id="rId8" display="https://www.toptal.com/" xr:uid="{3AB8CEDB-1D82-41CA-B8E1-06328CC56CA3}"/>
+    <hyperlink ref="F1" r:id="rId9" display="https://www.crowded.com/" xr:uid="{83F21779-0428-4A83-B90C-6E688888CFC3}"/>
+    <hyperlink ref="H1" location="'0'!A1" display="Back" xr:uid="{430EB8E8-F164-4BD0-9B21-E2E50766F256}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{D4FAD66A-28F0-4C4A-BED2-F07C8FA81824}"/>
+    <hyperlink ref="G1" r:id="rId11" xr:uid="{EC61840F-3434-4EED-9AEF-1059D1B93219}"/>
+    <hyperlink ref="A2" r:id="rId12" xr:uid="{9A470E76-9DAF-4669-868B-7EA7F7E14FC8}"/>
+    <hyperlink ref="B2" r:id="rId13" xr:uid="{F36D0EF3-B310-48E0-B035-DCED96FBA9AF}"/>
+    <hyperlink ref="C2" r:id="rId14" xr:uid="{D8AAE763-D88C-4C81-8624-9ACA26483D14}"/>
+    <hyperlink ref="A5" r:id="rId15" display="Learn With Marie" xr:uid="{8CD5AAB8-99EB-4FE8-B989-33F5EA40EF53}"/>
+    <hyperlink ref="D5" r:id="rId16" xr:uid="{6D8253A8-1B5E-4518-A7C3-EFE44611F8FC}"/>
+    <hyperlink ref="C5" r:id="rId17" display="فكرة - صهيب الدسوقي" xr:uid="{CE6D0991-3403-4103-A619-02FC979404AD}"/>
+    <hyperlink ref="B6" r:id="rId18" xr:uid="{2906F1E3-2519-4398-8B0D-8D29F2FF2674}"/>
+    <hyperlink ref="A6" r:id="rId19" display="https://www.tiktok.com/@learnwithmarie" xr:uid="{62EBA2DC-A178-4AFE-A3DA-488A613045CB}"/>
+    <hyperlink ref="E6" r:id="rId20" xr:uid="{0DDC87E8-1A87-423F-A72B-92BE7591E5B4}"/>
+    <hyperlink ref="B5" r:id="rId21" xr:uid="{EA8940E8-D385-4A47-927A-B01C42F001D9}"/>
+    <hyperlink ref="G2" r:id="rId22" xr:uid="{59EED1BA-BAD7-4C72-AC8E-FEB662CC7DB0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{866B73DE-53F2-44B5-9617-ECC017AFCAD6}">
   <dimension ref="B1:N20"/>
   <sheetViews>
@@ -5211,103 +5731,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="52" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" style="52" customWidth="1"/>
-    <col min="3" max="3" width="3.42578125" style="52" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="52" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="52" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="52"/>
-    <col min="8" max="8" width="32.85546875" style="52" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="52"/>
-    <col min="11" max="11" width="8.28515625" style="52" customWidth="1"/>
-    <col min="12" max="13" width="9.140625" style="52"/>
-    <col min="14" max="14" width="10" style="52" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="52"/>
+    <col min="1" max="1" width="2.7109375" style="46" customWidth="1"/>
+    <col min="2" max="2" width="49.140625" style="46" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="46" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="46" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="46" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="46"/>
+    <col min="8" max="8" width="32.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="46"/>
+    <col min="11" max="11" width="8.28515625" style="46" customWidth="1"/>
+    <col min="12" max="13" width="9.140625" style="46"/>
+    <col min="14" max="14" width="10" style="46" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>382</v>
-      </c>
-      <c r="F1" s="190" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="F1" s="218" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="L1" s="25"/>
     </row>
     <row r="2" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="191"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
     </row>
     <row r="3" spans="2:14" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="D3" s="57" t="s">
-        <v>380</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="B3" s="47" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:14" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>378</v>
-      </c>
-      <c r="H5" s="56" t="s">
-        <v>377</v>
+      <c r="B5" s="47" t="s">
+        <v>362</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="H5" s="50" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:14" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="55" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>375</v>
+      <c r="B7" s="49" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:14" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="53" t="s">
-        <v>374</v>
-      </c>
-      <c r="D9" s="54" t="s">
-        <v>373</v>
+      <c r="B9" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="48" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="E11" s="26"/>
+      <c r="D11" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="E11" s="25"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:14" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="53" t="s">
-        <v>371</v>
+      <c r="D13" s="47" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
+      <c r="B20" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5322,7 +5842,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7BDF425-3E53-42B2-9282-F08B3C0F62A8}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -5332,131 +5852,131 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57" style="59" customWidth="1"/>
-    <col min="2" max="2" width="31.140625" style="59" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="59" customWidth="1"/>
-    <col min="4" max="4" width="35" style="59" customWidth="1"/>
-    <col min="5" max="5" width="30" style="59" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="59"/>
+    <col min="1" max="1" width="57" style="53" customWidth="1"/>
+    <col min="2" max="2" width="31.140625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="35" style="53" customWidth="1"/>
+    <col min="5" max="5" width="30" style="53" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="D1" s="192" t="s">
-        <v>409</v>
-      </c>
-      <c r="E1" s="192"/>
-      <c r="G1" s="190" t="s">
-        <v>73</v>
+      <c r="A1" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1" s="220" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1" s="220"/>
+      <c r="G1" s="218" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="60" t="s">
-        <v>408</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>407</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>405</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>404</v>
-      </c>
-      <c r="G2" s="191"/>
+      <c r="A2" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="C2" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>388</v>
+      </c>
+      <c r="E2" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="G2" s="219"/>
     </row>
     <row r="3" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="60" t="s">
-        <v>403</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>402</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="D3" s="60" t="s">
-        <v>400</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>399</v>
+      <c r="A3" s="54" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>384</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="54" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="60" t="s">
-        <v>398</v>
-      </c>
-      <c r="B4" s="60" t="s">
-        <v>397</v>
-      </c>
-      <c r="C4" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>395</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>394</v>
+      <c r="A4" s="54" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="B5" s="60" t="s">
-        <v>392</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" s="60" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>389</v>
+      <c r="A5" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>374</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="60" t="s">
-        <v>388</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61" t="s">
-        <v>387</v>
-      </c>
-      <c r="D6" s="60" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="60"/>
+      <c r="A6" s="54" t="s">
+        <v>371</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="55" t="s">
+        <v>370</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>369</v>
+      </c>
+      <c r="E6" s="54"/>
     </row>
     <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60" t="s">
-        <v>385</v>
-      </c>
-      <c r="E7" s="60"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60" t="s">
-        <v>384</v>
-      </c>
-      <c r="E8" s="60"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5470,7 +5990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05DA8C8-9238-4EA5-AF15-46B382B90B57}">
   <dimension ref="A1:K22"/>
   <sheetViews>
@@ -5489,225 +6009,225 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="193" t="s">
-        <v>422</v>
-      </c>
-      <c r="B1" s="194"/>
-      <c r="D1" s="72" t="s">
-        <v>421</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>420</v>
-      </c>
-      <c r="G1" s="72" t="s">
-        <v>419</v>
-      </c>
-      <c r="J1" s="195" t="s">
-        <v>73</v>
-      </c>
-      <c r="K1" s="196"/>
+      <c r="A1" s="221" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="222"/>
+      <c r="D1" s="66" t="s">
+        <v>404</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>403</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="J1" s="223" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="224"/>
     </row>
     <row r="2" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71">
+      <c r="A2" s="65">
         <v>93</v>
       </c>
-      <c r="B2" s="70">
+      <c r="B2" s="64">
         <v>45115</v>
       </c>
-      <c r="D2" s="69" t="s">
-        <v>418</v>
-      </c>
-      <c r="F2" s="69">
+      <c r="D2" s="63" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" s="63">
         <v>55.4</v>
       </c>
-      <c r="G2" s="69">
+      <c r="G2" s="63">
         <v>74.8</v>
       </c>
-      <c r="J2" s="197"/>
-      <c r="K2" s="198"/>
+      <c r="J2" s="225"/>
+      <c r="K2" s="226"/>
     </row>
     <row r="3" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66">
+      <c r="A3" s="60">
         <v>90</v>
       </c>
-      <c r="B3" s="67">
+      <c r="B3" s="61">
         <v>45135</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="46"/>
     </row>
     <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="66">
+      <c r="A4" s="60">
         <v>90</v>
       </c>
-      <c r="B4" s="67">
+      <c r="B4" s="61">
         <v>45146</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>416</v>
+      <c r="F4" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66">
+      <c r="A5" s="60">
         <v>88.45</v>
       </c>
-      <c r="B5" s="67">
+      <c r="B5" s="61">
         <v>45192</v>
       </c>
-      <c r="F5" s="33" t="s">
-        <v>415</v>
-      </c>
-      <c r="G5" s="33">
+      <c r="F5" s="30" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" s="30">
         <v>29</v>
       </c>
-      <c r="J5" s="203" t="s">
-        <v>414</v>
-      </c>
-      <c r="K5" s="203"/>
+      <c r="J5" s="231" t="s">
+        <v>397</v>
+      </c>
+      <c r="K5" s="231"/>
     </row>
     <row r="6" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="66">
+      <c r="A6" s="60">
         <v>86.65</v>
       </c>
-      <c r="B6" s="67">
+      <c r="B6" s="61">
         <v>45204</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="52"/>
-      <c r="J6" s="204">
+      <c r="D6" s="46"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="46"/>
+      <c r="J6" s="232">
         <v>45234</v>
       </c>
-      <c r="K6" s="204"/>
+      <c r="K6" s="232"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="66">
+      <c r="A7" s="60">
         <v>86.45</v>
       </c>
-      <c r="B7" s="67">
+      <c r="B7" s="61">
         <v>45211</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="F7" s="199" t="s">
-        <v>413</v>
-      </c>
-      <c r="G7" s="200"/>
-      <c r="H7" s="52"/>
-      <c r="J7" s="205">
+      <c r="D7" s="46"/>
+      <c r="F7" s="227" t="s">
+        <v>396</v>
+      </c>
+      <c r="G7" s="228"/>
+      <c r="H7" s="46"/>
+      <c r="J7" s="233">
         <v>45264</v>
       </c>
-      <c r="K7" s="205"/>
+      <c r="K7" s="233"/>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="66">
+      <c r="A8" s="60">
         <v>85.2</v>
       </c>
-      <c r="B8" s="67">
+      <c r="B8" s="61">
         <v>45232</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="F8" s="201" t="s">
-        <v>412</v>
-      </c>
-      <c r="G8" s="202"/>
-      <c r="H8" s="52"/>
-      <c r="J8" s="204"/>
-      <c r="K8" s="204"/>
+      <c r="D8" s="46"/>
+      <c r="F8" s="229" t="s">
+        <v>395</v>
+      </c>
+      <c r="G8" s="230"/>
+      <c r="H8" s="46"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="232"/>
     </row>
     <row r="9" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="66">
+      <c r="A9" s="60">
         <v>84.8</v>
       </c>
-      <c r="B9" s="67">
+      <c r="B9" s="61">
         <v>45234</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
+      <c r="D9" s="46"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="232"/>
     </row>
     <row r="10" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="65"/>
-      <c r="D10" s="52"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
+      <c r="A10" s="60"/>
+      <c r="B10" s="59"/>
+      <c r="D10" s="46"/>
+      <c r="J10" s="232"/>
+      <c r="K10" s="232"/>
     </row>
     <row r="11" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="66"/>
-      <c r="B11" s="65"/>
-      <c r="D11" s="52"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="59"/>
+      <c r="D11" s="46"/>
+      <c r="J11" s="232"/>
+      <c r="K11" s="232"/>
     </row>
     <row r="12" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="66"/>
-      <c r="B12" s="65"/>
-      <c r="D12" s="52"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="59"/>
+      <c r="D12" s="46"/>
+      <c r="J12" s="232"/>
+      <c r="K12" s="232"/>
     </row>
     <row r="13" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="66"/>
-      <c r="B13" s="65"/>
-      <c r="D13" s="52"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="59"/>
+      <c r="D13" s="46"/>
+      <c r="J13" s="232"/>
+      <c r="K13" s="232"/>
     </row>
     <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="65"/>
-      <c r="D14" s="52"/>
-      <c r="J14" s="204"/>
-      <c r="K14" s="204"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="59"/>
+      <c r="D14" s="46"/>
+      <c r="J14" s="232"/>
+      <c r="K14" s="232"/>
     </row>
     <row r="15" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="65"/>
-      <c r="D15" s="52"/>
-      <c r="J15" s="204"/>
-      <c r="K15" s="204"/>
+      <c r="A15" s="60"/>
+      <c r="B15" s="59"/>
+      <c r="D15" s="46"/>
+      <c r="J15" s="232"/>
+      <c r="K15" s="232"/>
     </row>
     <row r="16" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="65"/>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="59"/>
+      <c r="J16" s="232"/>
+      <c r="K16" s="232"/>
     </row>
     <row r="17" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="65"/>
-      <c r="J17" s="204"/>
-      <c r="K17" s="204"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="59"/>
+      <c r="J17" s="232"/>
+      <c r="K17" s="232"/>
     </row>
     <row r="18" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="65"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="59"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="232"/>
     </row>
     <row r="19" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="65"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
+      <c r="A19" s="60"/>
+      <c r="B19" s="59"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="232"/>
     </row>
     <row r="20" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="65"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="59"/>
+      <c r="J20" s="232"/>
+      <c r="K20" s="232"/>
     </row>
     <row r="21" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="66"/>
-      <c r="B21" s="65"/>
-      <c r="J21" s="204"/>
-      <c r="K21" s="204"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="59"/>
+      <c r="J21" s="232"/>
+      <c r="K21" s="232"/>
     </row>
     <row r="22" spans="1:11" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="64"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5742,7 +6262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73EAC2E5-A839-4CFE-81CB-B3D389005C51}">
   <dimension ref="A1:K24"/>
   <sheetViews>
@@ -5750,315 +6270,315 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="73" customWidth="1"/>
-    <col min="2" max="2" width="25" style="73" customWidth="1"/>
-    <col min="3" max="3" width="46.42578125" style="73" customWidth="1"/>
-    <col min="4" max="4" width="1.85546875" style="73" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="73" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="73" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="73" customWidth="1"/>
-    <col min="9" max="9" width="24" style="73" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" style="73" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="73" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="73"/>
+    <col min="1" max="1" width="17.140625" style="67" customWidth="1"/>
+    <col min="2" max="2" width="25" style="67" customWidth="1"/>
+    <col min="3" max="3" width="46.42578125" style="67" customWidth="1"/>
+    <col min="4" max="4" width="1.85546875" style="67" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="67" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="67" customWidth="1"/>
+    <col min="9" max="9" width="24" style="67" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="67" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="67" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="67"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
-        <v>473</v>
-      </c>
-      <c r="B1" s="121" t="s">
-        <v>472</v>
-      </c>
-      <c r="C1" s="120" t="s">
-        <v>471</v>
-      </c>
-      <c r="E1" s="119" t="s">
-        <v>470</v>
-      </c>
-      <c r="F1" s="118" t="s">
-        <v>469</v>
-      </c>
-      <c r="G1" s="117" t="s">
-        <v>468</v>
-      </c>
-      <c r="H1" s="117" t="s">
-        <v>467</v>
-      </c>
-      <c r="I1" s="116" t="s">
-        <v>466</v>
-      </c>
-      <c r="K1" s="190" t="s">
-        <v>73</v>
+      <c r="A1" s="116" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>455</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E1" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1" s="112" t="s">
+        <v>452</v>
+      </c>
+      <c r="G1" s="111" t="s">
+        <v>451</v>
+      </c>
+      <c r="H1" s="111" t="s">
+        <v>450</v>
+      </c>
+      <c r="I1" s="110" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" s="218" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="209" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="115" t="s">
-        <v>464</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>463</v>
-      </c>
-      <c r="E2" s="223" t="s">
-        <v>462</v>
-      </c>
-      <c r="F2" s="114" t="s">
-        <v>461</v>
-      </c>
-      <c r="G2" s="113" t="s">
-        <v>460</v>
-      </c>
-      <c r="H2" s="113" t="s">
-        <v>459</v>
-      </c>
-      <c r="I2" s="112"/>
-      <c r="K2" s="191"/>
+      <c r="A2" s="237" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="109" t="s">
+        <v>447</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="E2" s="251" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>442</v>
+      </c>
+      <c r="I2" s="106"/>
+      <c r="K2" s="219"/>
     </row>
     <row r="3" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="209"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="82" t="s">
-        <v>458</v>
-      </c>
-      <c r="E3" s="224"/>
-      <c r="F3" s="111" t="s">
-        <v>457</v>
-      </c>
-      <c r="G3" s="110" t="s">
-        <v>456</v>
-      </c>
-      <c r="H3" s="110"/>
-      <c r="I3" s="109"/>
+      <c r="A3" s="237"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="252"/>
+      <c r="F3" s="105" t="s">
+        <v>440</v>
+      </c>
+      <c r="G3" s="104" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="I3" s="103"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="209"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="82"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="108" t="s">
-        <v>455</v>
-      </c>
-      <c r="G4" s="107">
+      <c r="A4" s="237"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="76"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="102" t="s">
+        <v>438</v>
+      </c>
+      <c r="G4" s="101">
         <v>44</v>
       </c>
-      <c r="H4" s="107" t="s">
-        <v>454</v>
-      </c>
-      <c r="I4" s="106" t="s">
+      <c r="H4" s="101" t="s">
+        <v>437</v>
+      </c>
+      <c r="I4" s="100" t="s">
+        <v>406</v>
+      </c>
+      <c r="K4" s="239" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="237"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="76"/>
+      <c r="E5" s="242" t="s">
+        <v>435</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>431</v>
+      </c>
+      <c r="G5" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="H5" s="98"/>
+      <c r="I5" s="97" t="s">
+        <v>433</v>
+      </c>
+      <c r="K5" s="240"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="237"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="76"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="95" t="s">
+        <v>432</v>
+      </c>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="93"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="237" t="s">
+        <v>431</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="244"/>
+      <c r="F7" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="237"/>
+      <c r="B8" s="248" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="E8" s="245" t="s">
+        <v>425</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8" s="249">
+        <v>1.8229166666666667</v>
+      </c>
+      <c r="H8" s="88"/>
+      <c r="I8" s="87"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="237"/>
+      <c r="B9" s="248"/>
+      <c r="C9" s="76" t="s">
         <v>423</v>
       </c>
-      <c r="K4" s="211" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="209"/>
-      <c r="B5" s="102"/>
-      <c r="C5" s="82"/>
-      <c r="E5" s="214" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="105" t="s">
-        <v>448</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>451</v>
-      </c>
-      <c r="H5" s="104"/>
-      <c r="I5" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="K5" s="212"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="209"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="82"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="101" t="s">
-        <v>449</v>
-      </c>
-      <c r="G6" s="100"/>
-      <c r="H6" s="100"/>
-      <c r="I6" s="99"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="209" t="s">
-        <v>448</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="C7" s="82" t="s">
-        <v>446</v>
-      </c>
-      <c r="E7" s="216"/>
-      <c r="F7" s="98" t="s">
-        <v>445</v>
-      </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="96"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="209"/>
-      <c r="B8" s="220" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>443</v>
-      </c>
-      <c r="E8" s="217" t="s">
-        <v>442</v>
-      </c>
-      <c r="F8" s="95" t="s">
-        <v>441</v>
-      </c>
-      <c r="G8" s="221">
-        <v>1.8229166666666667</v>
-      </c>
-      <c r="H8" s="94"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="209"/>
-      <c r="B9" s="220"/>
-      <c r="C9" s="82" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" s="218"/>
-      <c r="F9" s="92" t="s">
-        <v>439</v>
-      </c>
-      <c r="G9" s="222"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="90"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="G9" s="250"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="209"/>
-      <c r="B10" s="68" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" s="82"/>
+      <c r="A10" s="237"/>
+      <c r="B10" s="62" t="s">
+        <v>421</v>
+      </c>
+      <c r="C10" s="76"/>
     </row>
     <row r="11" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="209" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" s="89" t="s">
-        <v>436</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="E11" s="219" t="s">
-        <v>435</v>
-      </c>
-      <c r="F11" s="88" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="210" t="s">
-        <v>433</v>
+      <c r="A11" s="237" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="C11" s="76"/>
+      <c r="E11" s="247" t="s">
+        <v>418</v>
+      </c>
+      <c r="F11" s="82" t="s">
+        <v>417</v>
+      </c>
+      <c r="I11" s="238" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="209"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="82"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="87" t="s">
-        <v>432</v>
-      </c>
-      <c r="I12" s="210"/>
+      <c r="A12" s="237"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="76"/>
+      <c r="E12" s="237"/>
+      <c r="F12" s="81" t="s">
+        <v>415</v>
+      </c>
+      <c r="I12" s="238"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="209"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="82"/>
-      <c r="E13" s="209"/>
-      <c r="F13" s="86"/>
-      <c r="I13" s="210"/>
+      <c r="A13" s="237"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="76"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="80"/>
+      <c r="I13" s="238"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="209"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="82"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="86"/>
-      <c r="I14" s="84" t="s">
-        <v>431</v>
+      <c r="A14" s="237"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="76"/>
+      <c r="E14" s="237"/>
+      <c r="F14" s="80"/>
+      <c r="I14" s="78" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="209"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="82"/>
-      <c r="E15" s="213"/>
-      <c r="F15" s="85"/>
-      <c r="I15" s="84" t="s">
-        <v>430</v>
+      <c r="A15" s="237"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="76"/>
+      <c r="E15" s="241"/>
+      <c r="F15" s="79"/>
+      <c r="I15" s="78" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="209"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="237"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="76"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="209" t="s">
-        <v>429</v>
-      </c>
-      <c r="B17" s="83" t="s">
-        <v>428</v>
-      </c>
-      <c r="C17" s="82"/>
+      <c r="A17" s="237" t="s">
+        <v>412</v>
+      </c>
+      <c r="B17" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="C17" s="76"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="209"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="82"/>
+      <c r="A18" s="237"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="76"/>
       <c r="H18" s="3"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="209"/>
-      <c r="B19" s="68"/>
-      <c r="C19" s="82"/>
+      <c r="A19" s="237"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="76"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="213"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="80"/>
+      <c r="A20" s="241"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="74"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="206" t="s">
-        <v>427</v>
-      </c>
-      <c r="B22" s="207"/>
-      <c r="C22" s="208"/>
+      <c r="A22" s="234" t="s">
+        <v>410</v>
+      </c>
+      <c r="B22" s="235"/>
+      <c r="C22" s="236"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
-        <v>425</v>
-      </c>
-      <c r="B23" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="C23" s="77" t="s">
-        <v>423</v>
+      <c r="A23" s="73" t="s">
+        <v>408</v>
+      </c>
+      <c r="B23" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="C23" s="71" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
-        <v>425</v>
-      </c>
-      <c r="B24" s="75" t="s">
-        <v>424</v>
-      </c>
-      <c r="C24" s="74" t="s">
-        <v>423</v>
+      <c r="A24" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="69" t="s">
+        <v>407</v>
+      </c>
+      <c r="C24" s="68" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6094,7 +6614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE29E84-B105-4204-84A0-D57687751D9A}">
   <dimension ref="V1:V2"/>
   <sheetViews>
@@ -6105,12 +6625,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="22:22" x14ac:dyDescent="0.25">
-      <c r="V1" s="190" t="s">
-        <v>73</v>
+      <c r="V1" s="218" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="22:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V2" s="191"/>
+      <c r="V2" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6124,7 +6644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6618AA-AE09-4C49-A204-1817CC12D7FC}">
   <dimension ref="A1:H26"/>
   <sheetViews>
@@ -6141,276 +6661,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
-        <v>495</v>
-      </c>
-      <c r="B1" s="127" t="s">
-        <v>494</v>
-      </c>
-      <c r="C1" s="127" t="s">
-        <v>493</v>
-      </c>
-      <c r="D1" s="127" t="s">
-        <v>492</v>
-      </c>
-      <c r="E1" s="127" t="s">
-        <v>491</v>
-      </c>
-      <c r="F1" s="127" t="s">
-        <v>490</v>
-      </c>
-      <c r="H1" s="190" t="s">
-        <v>73</v>
+      <c r="A1" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="B1" s="121" t="s">
+        <v>477</v>
+      </c>
+      <c r="C1" s="121" t="s">
+        <v>476</v>
+      </c>
+      <c r="D1" s="121" t="s">
+        <v>475</v>
+      </c>
+      <c r="E1" s="121" t="s">
+        <v>474</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>473</v>
+      </c>
+      <c r="H1" s="218" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="125" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="68" t="s">
-        <v>488</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>488</v>
-      </c>
-      <c r="D2" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="E2" s="68">
+      <c r="A2" s="119" t="s">
+        <v>472</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="C2" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="E2" s="62">
         <v>2</v>
       </c>
-      <c r="F2" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="H2" s="191"/>
+      <c r="F2" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="H2" s="219"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
-        <v>487</v>
-      </c>
-      <c r="B3" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="D3" s="68">
+      <c r="A3" s="119" t="s">
+        <v>470</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="D3" s="62">
         <v>15</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="62">
         <v>3</v>
       </c>
-      <c r="F3" s="126" t="s">
-        <v>485</v>
+      <c r="F3" s="120" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
-        <v>486</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="C4" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="D4" s="68">
+      <c r="A4" s="119" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="D4" s="62">
         <v>15</v>
       </c>
-      <c r="E4" s="68">
+      <c r="E4" s="62">
         <v>3</v>
       </c>
-      <c r="F4" s="126" t="s">
-        <v>485</v>
+      <c r="F4" s="120" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
-        <v>484</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="C5" s="68" t="s">
-        <v>483</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="E5" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="F5" s="68" t="s">
-        <v>479</v>
+      <c r="A5" s="119" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="C5" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
-        <v>482</v>
-      </c>
-      <c r="B6" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="C6" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="D6" s="68">
+      <c r="A6" s="119" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C6" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="62">
         <v>15</v>
       </c>
-      <c r="E6" s="68">
+      <c r="E6" s="62">
         <v>3</v>
       </c>
-      <c r="F6" s="68" t="s">
-        <v>479</v>
+      <c r="F6" s="62" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
-        <v>481</v>
-      </c>
-      <c r="B7" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="C7" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="D7" s="68">
+      <c r="A7" s="119" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="D7" s="62">
         <v>15</v>
       </c>
-      <c r="E7" s="68">
+      <c r="E7" s="62">
         <v>3</v>
       </c>
-      <c r="F7" s="68" t="s">
-        <v>479</v>
+      <c r="F7" s="62" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
-        <v>480</v>
-      </c>
-      <c r="B8" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="68" t="s">
-        <v>479</v>
-      </c>
-      <c r="D8" s="68">
+      <c r="A8" s="119" t="s">
+        <v>463</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="D8" s="62">
         <v>50</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="62">
         <v>2</v>
       </c>
-      <c r="F8" s="68" t="s">
-        <v>479</v>
+      <c r="F8" s="62" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="125"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="125"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="125"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="125"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+      <c r="A12" s="119"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="62"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="125"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="125"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="A14" s="119"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="125"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
+      <c r="A15" s="119"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="125"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="125"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="125"/>
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="124" t="s">
-        <v>478</v>
+      <c r="B20" s="118" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
-        <v>477</v>
+      <c r="B21" s="118" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="124" t="s">
-        <v>476</v>
+      <c r="B22" s="118" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="124" t="s">
-        <v>475</v>
+      <c r="B23" s="118" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="123" t="s">
-        <v>474</v>
+      <c r="B24" s="117" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="123"/>
+      <c r="B26" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6429,7 +6949,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{938CE309-CBD9-4E7B-AEF7-6480C043974A}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -6446,142 +6966,142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
-        <v>524</v>
-      </c>
-      <c r="B1" s="129" t="s">
-        <v>523</v>
-      </c>
-      <c r="C1" s="131" t="s">
-        <v>522</v>
-      </c>
-      <c r="D1" s="130"/>
+      <c r="A1" s="125" t="s">
+        <v>507</v>
+      </c>
+      <c r="B1" s="123" t="s">
+        <v>506</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="124"/>
     </row>
     <row r="2" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="131" t="s">
-        <v>521</v>
-      </c>
-      <c r="B2" s="131" t="s">
-        <v>520</v>
-      </c>
-      <c r="C2" s="131" t="s">
-        <v>519</v>
-      </c>
-      <c r="D2" s="130"/>
+      <c r="A2" s="125" t="s">
+        <v>504</v>
+      </c>
+      <c r="B2" s="125" t="s">
+        <v>503</v>
+      </c>
+      <c r="C2" s="125" t="s">
+        <v>502</v>
+      </c>
+      <c r="D2" s="124"/>
     </row>
     <row r="3" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
-        <v>518</v>
-      </c>
-      <c r="B3" s="131" t="s">
-        <v>517</v>
-      </c>
-      <c r="C3" s="131" t="s">
-        <v>516</v>
-      </c>
-      <c r="D3" s="133" t="s">
-        <v>515</v>
+      <c r="A3" s="125" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" s="125" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="125" t="s">
+        <v>499</v>
+      </c>
+      <c r="D3" s="127" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="131" t="s">
-        <v>586</v>
-      </c>
-      <c r="B4" s="130"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="133" t="s">
-        <v>514</v>
+      <c r="A4" s="125" t="s">
+        <v>569</v>
+      </c>
+      <c r="B4" s="124"/>
+      <c r="C4" s="124"/>
+      <c r="D4" s="127" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="129" t="s">
-        <v>513</v>
-      </c>
-      <c r="C5" s="131" t="s">
-        <v>512</v>
-      </c>
-      <c r="D5" s="132" t="s">
-        <v>511</v>
+      <c r="A5" s="124"/>
+      <c r="B5" s="123" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="125" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="126" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="131" t="s">
-        <v>510</v>
-      </c>
-      <c r="B6" s="131" t="s">
-        <v>509</v>
-      </c>
-      <c r="C6" s="131" t="s">
-        <v>508</v>
-      </c>
-      <c r="D6" s="132" t="s">
-        <v>507</v>
+      <c r="A6" s="125" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="125" t="s">
+        <v>492</v>
+      </c>
+      <c r="C6" s="125" t="s">
+        <v>491</v>
+      </c>
+      <c r="D6" s="126" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="131" t="s">
-        <v>506</v>
-      </c>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
+      <c r="A7" s="125" t="s">
+        <v>489</v>
+      </c>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
     </row>
     <row r="8" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="129" t="s">
-        <v>505</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>504</v>
-      </c>
-      <c r="D8" s="129" t="s">
-        <v>503</v>
+      <c r="A8" s="124"/>
+      <c r="B8" s="123" t="s">
+        <v>488</v>
+      </c>
+      <c r="C8" s="123" t="s">
+        <v>487</v>
+      </c>
+      <c r="D8" s="123" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="129" t="s">
-        <v>502</v>
-      </c>
-      <c r="B9" s="129" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9" s="129" t="s">
-        <v>500</v>
-      </c>
-      <c r="D9" s="129" t="s">
-        <v>499</v>
+      <c r="A9" s="123" t="s">
+        <v>485</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>484</v>
+      </c>
+      <c r="C9" s="123" t="s">
+        <v>483</v>
+      </c>
+      <c r="D9" s="123" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="129" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10" s="129" t="s">
-        <v>497</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>496</v>
-      </c>
-      <c r="D10" s="128"/>
+      <c r="A10" s="123" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>480</v>
+      </c>
+      <c r="C10" s="123" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="122"/>
     </row>
     <row r="11" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
     </row>
     <row r="12" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="122"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
     </row>
     <row r="13" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="128"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6621,7 +7141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F400A9-25AF-489A-8792-73626C411A1E}">
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -6631,102 +7151,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="26.85546875" style="52"/>
+    <col min="1" max="16384" width="26.85546875" style="46"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
-        <v>535</v>
-      </c>
-      <c r="B1" s="136" t="s">
-        <v>534</v>
-      </c>
-      <c r="C1" s="136" t="s">
-        <v>533</v>
-      </c>
-      <c r="D1" s="136" t="s">
-        <v>532</v>
-      </c>
-      <c r="E1" s="136" t="s">
-        <v>73</v>
+      <c r="A1" s="130" t="s">
+        <v>518</v>
+      </c>
+      <c r="B1" s="130" t="s">
+        <v>517</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="130" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" s="130" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135" t="s">
-        <v>531</v>
-      </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="A2" s="129" t="s">
+        <v>514</v>
+      </c>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
     </row>
     <row r="3" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
-        <v>530</v>
-      </c>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
+      <c r="A3" s="129" t="s">
+        <v>513</v>
+      </c>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
     </row>
     <row r="4" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
-        <v>529</v>
-      </c>
-      <c r="B4" s="135"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
+      <c r="A4" s="129" t="s">
+        <v>512</v>
+      </c>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
     </row>
     <row r="5" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="135" t="s">
-        <v>528</v>
-      </c>
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="135"/>
-      <c r="E5" s="135"/>
+      <c r="A5" s="129" t="s">
+        <v>511</v>
+      </c>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="129"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
-        <v>527</v>
-      </c>
-      <c r="B6" s="135"/>
-      <c r="C6" s="135"/>
-      <c r="D6" s="135"/>
-      <c r="E6" s="135"/>
+      <c r="A6" s="129" t="s">
+        <v>510</v>
+      </c>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
     </row>
     <row r="7" spans="1:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="135" t="s">
-        <v>526</v>
-      </c>
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
+      <c r="A7" s="129" t="s">
+        <v>509</v>
+      </c>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="135" t="s">
-        <v>525</v>
-      </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="135"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
+      <c r="A8" s="129" t="s">
+        <v>508</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="129"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="128"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="128"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="134"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6737,7 +7257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0619797C-2395-49AD-B430-431568456085}">
   <dimension ref="A1:XFC39"/>
   <sheetViews>
@@ -6745,399 +7265,399 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.5703125" style="137" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" style="137" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="137" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="137" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="137" customWidth="1"/>
-    <col min="6" max="6" width="16" style="137" customWidth="1"/>
-    <col min="7" max="7" width="0" style="137" hidden="1"/>
-    <col min="8" max="16383" width="9.140625" style="137" hidden="1"/>
-    <col min="16384" max="16384" width="10" style="137" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="51.5703125" style="131" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" style="131" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="131" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="131" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="131" customWidth="1"/>
+    <col min="6" max="6" width="16" style="131" customWidth="1"/>
+    <col min="7" max="7" width="0" style="131" hidden="1"/>
+    <col min="8" max="16383" width="9.140625" style="131" hidden="1"/>
+    <col min="16384" max="16384" width="10" style="131" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="143" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
-        <v>544</v>
-      </c>
-      <c r="B1" s="144" t="s">
-        <v>543</v>
-      </c>
-      <c r="C1" s="144" t="s">
-        <v>542</v>
-      </c>
-      <c r="D1" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="E1" s="144" t="s">
-        <v>540</v>
-      </c>
-      <c r="F1" s="140"/>
+    <row r="1" spans="1:7" s="137" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="138" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="C1" s="138" t="s">
+        <v>525</v>
+      </c>
+      <c r="D1" s="138" t="s">
+        <v>524</v>
+      </c>
+      <c r="E1" s="138" t="s">
+        <v>523</v>
+      </c>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
-        <v>539</v>
-      </c>
-      <c r="B2" s="142" t="s">
-        <v>538</v>
-      </c>
-      <c r="C2" s="142">
+      <c r="A2" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="B2" s="136" t="s">
+        <v>521</v>
+      </c>
+      <c r="C2" s="136">
         <v>1227504373</v>
       </c>
-      <c r="D2" s="142">
+      <c r="D2" s="136">
         <v>1023409495</v>
       </c>
-      <c r="E2" s="142">
+      <c r="E2" s="136">
         <v>1115204079</v>
       </c>
-      <c r="F2" s="140"/>
-      <c r="G2" s="139"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="133"/>
     </row>
     <row r="3" spans="1:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="140" t="s">
-        <v>539</v>
-      </c>
-      <c r="B3" s="142" t="s">
-        <v>538</v>
-      </c>
-      <c r="C3" s="142">
+      <c r="A3" s="134" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" s="136" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="136">
         <v>1028358685</v>
       </c>
-      <c r="D3" s="142">
+      <c r="D3" s="136">
         <v>1221416005</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="140"/>
-      <c r="G3" s="139"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="133"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="141" t="s">
-        <v>537</v>
-      </c>
-      <c r="B4" s="140" t="s">
-        <v>536</v>
-      </c>
-      <c r="C4" s="140">
+      <c r="A4" s="135" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="134" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4" s="134">
         <v>1125519116</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="139"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="133"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="139"/>
+      <c r="A5" s="134"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="133"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="139"/>
+      <c r="A6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="133"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="139"/>
+      <c r="A7" s="134"/>
+      <c r="B7" s="134"/>
+      <c r="C7" s="134"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="133"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="139"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="134"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="133"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="139"/>
+      <c r="A9" s="134"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="133"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="139"/>
+      <c r="A10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="133"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="139"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
+      <c r="C11" s="134"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="133"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="139"/>
+      <c r="A12" s="134"/>
+      <c r="B12" s="134"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="133"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="139"/>
+      <c r="A13" s="134"/>
+      <c r="B13" s="134"/>
+      <c r="C13" s="134"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="133"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="139"/>
+      <c r="A14" s="134"/>
+      <c r="B14" s="134"/>
+      <c r="C14" s="134"/>
+      <c r="D14" s="134"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="133"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="139"/>
+      <c r="A15" s="134"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="133"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="139"/>
+      <c r="A16" s="134"/>
+      <c r="B16" s="134"/>
+      <c r="C16" s="134"/>
+      <c r="D16" s="134"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="133"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="139"/>
+      <c r="A17" s="134"/>
+      <c r="B17" s="134"/>
+      <c r="C17" s="134"/>
+      <c r="D17" s="134"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="134"/>
+      <c r="G17" s="133"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="139"/>
+      <c r="A18" s="134"/>
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="133"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="139"/>
+      <c r="A19" s="134"/>
+      <c r="B19" s="134"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="133"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="139"/>
+      <c r="A20" s="134"/>
+      <c r="B20" s="134"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="133"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="140"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="139"/>
+      <c r="A21" s="134"/>
+      <c r="B21" s="134"/>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="133"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="140"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="139"/>
+      <c r="A22" s="134"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="133"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
-      <c r="B23" s="140"/>
-      <c r="C23" s="140"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="140"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="139"/>
+      <c r="A23" s="134"/>
+      <c r="B23" s="134"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="133"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
-      <c r="B24" s="140"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="139"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="134"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="134"/>
+      <c r="G24" s="133"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="140"/>
-      <c r="B25" s="140"/>
-      <c r="C25" s="140"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="139"/>
+      <c r="A25" s="134"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="133"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
-      <c r="B26" s="140"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="139"/>
+      <c r="A26" s="134"/>
+      <c r="B26" s="134"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="133"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
-      <c r="B27" s="140"/>
-      <c r="C27" s="140"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="139"/>
+      <c r="A27" s="134"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="134"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="133"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="140"/>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="140"/>
-      <c r="F28" s="140"/>
-      <c r="G28" s="139"/>
+      <c r="A28" s="134"/>
+      <c r="B28" s="134"/>
+      <c r="C28" s="134"/>
+      <c r="D28" s="134"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="133"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="140"/>
-      <c r="B29" s="140"/>
-      <c r="C29" s="140"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="139"/>
+      <c r="A29" s="134"/>
+      <c r="B29" s="134"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="134"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="134"/>
+      <c r="G29" s="133"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="140"/>
-      <c r="B30" s="140"/>
-      <c r="C30" s="140"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="139"/>
+      <c r="A30" s="134"/>
+      <c r="B30" s="134"/>
+      <c r="C30" s="134"/>
+      <c r="D30" s="134"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="133"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="140"/>
-      <c r="B31" s="140"/>
-      <c r="C31" s="140"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="139"/>
+      <c r="A31" s="134"/>
+      <c r="B31" s="134"/>
+      <c r="C31" s="134"/>
+      <c r="D31" s="134"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="133"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="140"/>
-      <c r="B32" s="140"/>
-      <c r="C32" s="140"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="139"/>
+      <c r="A32" s="134"/>
+      <c r="B32" s="134"/>
+      <c r="C32" s="134"/>
+      <c r="D32" s="134"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="133"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="140"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="139"/>
+      <c r="A33" s="134"/>
+      <c r="B33" s="134"/>
+      <c r="C33" s="134"/>
+      <c r="D33" s="134"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="134"/>
+      <c r="G33" s="133"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="140"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="139"/>
+      <c r="A34" s="134"/>
+      <c r="B34" s="134"/>
+      <c r="C34" s="134"/>
+      <c r="D34" s="134"/>
+      <c r="E34" s="134"/>
+      <c r="F34" s="134"/>
+      <c r="G34" s="133"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="140"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="139"/>
+      <c r="A35" s="134"/>
+      <c r="B35" s="134"/>
+      <c r="C35" s="134"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="134"/>
+      <c r="F35" s="134"/>
+      <c r="G35" s="133"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="140"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="140"/>
-      <c r="F36" s="140"/>
-      <c r="G36" s="139"/>
+      <c r="A36" s="134"/>
+      <c r="B36" s="134"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="133"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="140"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="140"/>
-      <c r="F37" s="140"/>
-      <c r="G37" s="139"/>
+      <c r="A37" s="134"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="134"/>
+      <c r="D37" s="134"/>
+      <c r="E37" s="134"/>
+      <c r="F37" s="134"/>
+      <c r="G37" s="133"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="140"/>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="140"/>
-      <c r="F38" s="140"/>
-      <c r="G38" s="139"/>
+      <c r="A38" s="134"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="133"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="138"/>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
+      <c r="A39" s="132"/>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7146,134 +7666,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
   <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BF4A25-5B04-4D50-A541-5B60B759528C}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="112.7109375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="68" customWidth="1"/>
-    <col min="3" max="7" width="0" style="68" hidden="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="68" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
-        <v>558</v>
-      </c>
-      <c r="B1" s="149" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="148" t="s">
-        <v>557</v>
-      </c>
-      <c r="B2" s="147"/>
-    </row>
-    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148" t="s">
-        <v>556</v>
-      </c>
-      <c r="B3" s="147"/>
-    </row>
-    <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="148" t="s">
-        <v>555</v>
-      </c>
-      <c r="B4" s="147"/>
-    </row>
-    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="148" t="s">
-        <v>554</v>
-      </c>
-      <c r="B5" s="147"/>
-    </row>
-    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
-        <v>553</v>
-      </c>
-      <c r="B6" s="147"/>
-    </row>
-    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148" t="s">
-        <v>552</v>
-      </c>
-      <c r="B7" s="147"/>
-    </row>
-    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="148" t="s">
-        <v>551</v>
-      </c>
-      <c r="B8" s="147"/>
-    </row>
-    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
-        <v>550</v>
-      </c>
-      <c r="B9" s="147"/>
-    </row>
-    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="148" t="s">
-        <v>549</v>
-      </c>
-      <c r="B10" s="147"/>
-    </row>
-    <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="148" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" s="147"/>
-    </row>
-    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
-        <v>547</v>
-      </c>
-      <c r="B12" s="147"/>
-    </row>
-    <row r="13" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="147"/>
-      <c r="B13" s="147"/>
-    </row>
-    <row r="14" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="147"/>
-      <c r="B14" s="147"/>
-    </row>
-    <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="147"/>
-      <c r="B15" s="147"/>
-    </row>
-    <row r="16" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="147"/>
-      <c r="B16" s="147"/>
-    </row>
-    <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147"/>
-      <c r="B17" s="147"/>
-    </row>
-    <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="146" t="s">
-        <v>546</v>
-      </c>
-      <c r="B18" s="145" t="s">
-        <v>545</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="https://www.youtube.com/watch?v=pER0VDolayk" xr:uid="{8D9C5CE4-4728-4F81-A576-0CEC3B565C8F}"/>
-    <hyperlink ref="B1" location="Home!A1" display="Back" xr:uid="{19FA8053-1B4C-4EC0-85AF-D6EC0A46B0FA}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7287,144 +7679,144 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="20" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="20" style="154"/>
+    <col min="1" max="16384" width="20" style="148"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
-        <v>592</v>
-      </c>
-      <c r="B1" s="153" t="s">
-        <v>593</v>
-      </c>
-      <c r="C1" s="153" t="s">
-        <v>594</v>
-      </c>
-      <c r="D1" s="153" t="s">
-        <v>595</v>
-      </c>
-      <c r="E1" s="153" t="s">
-        <v>596</v>
-      </c>
-      <c r="F1" s="153" t="s">
-        <v>597</v>
-      </c>
-      <c r="G1" s="153" t="s">
-        <v>598</v>
-      </c>
-      <c r="H1" s="153" t="s">
-        <v>599</v>
-      </c>
-      <c r="I1" s="153"/>
-      <c r="J1" s="155" t="s">
-        <v>73</v>
+      <c r="A1" s="147" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>576</v>
+      </c>
+      <c r="C1" s="147" t="s">
+        <v>577</v>
+      </c>
+      <c r="D1" s="147" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="147" t="s">
+        <v>579</v>
+      </c>
+      <c r="F1" s="147" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1" s="147" t="s">
+        <v>581</v>
+      </c>
+      <c r="H1" s="147" t="s">
+        <v>582</v>
+      </c>
+      <c r="I1" s="147"/>
+      <c r="J1" s="149" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
-        <v>600</v>
-      </c>
-      <c r="B2" s="153" t="s">
-        <v>601</v>
-      </c>
-      <c r="C2" s="153" t="s">
-        <v>602</v>
-      </c>
-      <c r="D2" s="153" t="s">
-        <v>603</v>
-      </c>
-      <c r="E2" s="153" t="s">
-        <v>604</v>
-      </c>
-      <c r="F2" s="153" t="s">
-        <v>605</v>
-      </c>
-      <c r="G2" s="153" t="s">
-        <v>606</v>
-      </c>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
+      <c r="A2" s="147" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="147" t="s">
+        <v>586</v>
+      </c>
+      <c r="E2" s="147" t="s">
+        <v>587</v>
+      </c>
+      <c r="F2" s="147" t="s">
+        <v>588</v>
+      </c>
+      <c r="G2" s="147" t="s">
+        <v>589</v>
+      </c>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
     </row>
     <row r="3" spans="1:10" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
-        <v>607</v>
-      </c>
-      <c r="B3" s="153" t="s">
-        <v>608</v>
-      </c>
-      <c r="C3" s="153"/>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="153"/>
-      <c r="I3" s="153"/>
+      <c r="A3" s="147" t="s">
+        <v>590</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>591</v>
+      </c>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
     </row>
     <row r="4" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153"/>
-      <c r="B4" s="153"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="153"/>
-      <c r="G4" s="153"/>
-      <c r="H4" s="153"/>
-      <c r="I4" s="153"/>
+      <c r="A4" s="147"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="153"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
-      <c r="H5" s="153"/>
-      <c r="I5" s="153"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="153"/>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="153"/>
-      <c r="I6" s="153"/>
+      <c r="A6" s="147"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
     </row>
     <row r="7" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153"/>
-      <c r="B7" s="153"/>
-      <c r="C7" s="153"/>
-      <c r="D7" s="153"/>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
     </row>
     <row r="8" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="153"/>
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
+      <c r="A8" s="147"/>
+      <c r="B8" s="147"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
     </row>
     <row r="9" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="153"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
+      <c r="A9" s="147"/>
+      <c r="B9" s="147"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7452,6 +7844,134 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5BF4A25-5B04-4D50-A541-5B60B759528C}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="112.7109375" style="62" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="62" customWidth="1"/>
+    <col min="3" max="7" width="0" style="62" hidden="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="62" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="143" t="s">
+        <v>541</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="142" t="s">
+        <v>540</v>
+      </c>
+      <c r="B2" s="141"/>
+    </row>
+    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="142" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="141"/>
+    </row>
+    <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="142" t="s">
+        <v>538</v>
+      </c>
+      <c r="B4" s="141"/>
+    </row>
+    <row r="5" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="142" t="s">
+        <v>537</v>
+      </c>
+      <c r="B5" s="141"/>
+    </row>
+    <row r="6" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="142" t="s">
+        <v>536</v>
+      </c>
+      <c r="B6" s="141"/>
+    </row>
+    <row r="7" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="142" t="s">
+        <v>535</v>
+      </c>
+      <c r="B7" s="141"/>
+    </row>
+    <row r="8" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="142" t="s">
+        <v>534</v>
+      </c>
+      <c r="B8" s="141"/>
+    </row>
+    <row r="9" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="142" t="s">
+        <v>533</v>
+      </c>
+      <c r="B9" s="141"/>
+    </row>
+    <row r="10" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="142" t="s">
+        <v>532</v>
+      </c>
+      <c r="B10" s="141"/>
+    </row>
+    <row r="11" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="142" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" s="141"/>
+    </row>
+    <row r="12" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="142" t="s">
+        <v>530</v>
+      </c>
+      <c r="B12" s="141"/>
+    </row>
+    <row r="13" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+    </row>
+    <row r="14" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="141"/>
+      <c r="B14" s="141"/>
+    </row>
+    <row r="15" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="141"/>
+      <c r="B15" s="141"/>
+    </row>
+    <row r="16" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
+    </row>
+    <row r="17" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
+    </row>
+    <row r="18" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="140" t="s">
+        <v>529</v>
+      </c>
+      <c r="B18" s="139" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A18" r:id="rId1" display="https://www.youtube.com/watch?v=pER0VDolayk" xr:uid="{8D9C5CE4-4728-4F81-A576-0CEC3B565C8F}"/>
+    <hyperlink ref="B1" location="Home!A1" display="Back" xr:uid="{19FA8053-1B4C-4EC0-85AF-D6EC0A46B0FA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC843F6-2887-4BE1-A36B-BE9F1EA31AD0}">
   <dimension ref="A1:I8"/>
   <sheetViews>
@@ -7463,43 +7983,43 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>568</v>
+        <v>551</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>569</v>
+        <v>552</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>570</v>
+        <v>553</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>573</v>
+        <v>556</v>
       </c>
       <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>574</v>
+        <v>557</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -7509,7 +8029,7 @@
     </row>
     <row r="3" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>576</v>
+        <v>559</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -7595,6 +8115,253 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B540495-B4AD-4CA9-A206-F86AB5A39250}">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="254" t="s">
+        <v>671</v>
+      </c>
+      <c r="B1" s="254" t="s">
+        <v>672</v>
+      </c>
+      <c r="C1" s="254" t="s">
+        <v>673</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="E1" s="255" t="s">
+        <v>675</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="H1" s="256"/>
+      <c r="I1" s="257" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="C2" s="255" t="s">
+        <v>680</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="H2" s="256"/>
+      <c r="I2" s="258" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="H3" s="256"/>
+      <c r="I3" s="259" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>699</v>
+      </c>
+      <c r="G4" s="255" t="s">
+        <v>700</v>
+      </c>
+      <c r="H4" s="256"/>
+      <c r="I4" s="260" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>702</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="E5" s="255" t="s">
+        <v>706</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="G5" s="256"/>
+      <c r="H5" s="256"/>
+      <c r="I5" s="260" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="256"/>
+      <c r="B6" s="256"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="256"/>
+      <c r="F6" s="256"/>
+      <c r="G6" s="256" t="s">
+        <v>709</v>
+      </c>
+      <c r="H6" s="256"/>
+      <c r="I6" s="260" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="D7" s="261" t="s">
+        <v>713</v>
+      </c>
+      <c r="E7" s="261" t="s">
+        <v>714</v>
+      </c>
+      <c r="F7" s="261" t="s">
+        <v>715</v>
+      </c>
+      <c r="G7" s="261" t="s">
+        <v>716</v>
+      </c>
+      <c r="H7" s="256"/>
+      <c r="I7" s="256"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" location="Banks!A1" display="[Banks]" xr:uid="{E863C263-B121-46B5-B250-90A63C3318BB}"/>
+    <hyperlink ref="D1" r:id="rId1" display="https://wuzzuf.net/jobs/egypt" xr:uid="{8A1DD4C6-4794-4F1C-AE4C-F7CB12594ECC}"/>
+    <hyperlink ref="F1" r:id="rId2" display="https://www.bayt.com/en/egypt" xr:uid="{A1A9996F-AE82-4447-8F49-5BDDBF6756B1}"/>
+    <hyperlink ref="E5" r:id="rId3" display="https://www.men7h.com/" xr:uid="{57D5D091-2A41-43CB-A181-0FA20CE9D608}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://jobsindelta.com/" xr:uid="{256B6A77-7C2E-47AA-9AC7-EEC114D27112}"/>
+    <hyperlink ref="E1" r:id="rId5" display="https://www.msrjob.com/" xr:uid="{3B2DD3A1-FDB6-46BF-B62D-34588536EC08}"/>
+    <hyperlink ref="G4" r:id="rId6" display="https://jobs.caoa.gov.eg/" xr:uid="{9335FB3D-0CE7-4670-AA5D-E6345C8F8CD4}"/>
+    <hyperlink ref="G1" r:id="rId7" display="https://www.egycareers.com/" xr:uid="{7C698E58-E1FE-4E52-81DF-F0E11DEA6431}"/>
+    <hyperlink ref="B2" r:id="rId8" display="https://eg.expertini.com/jobs" xr:uid="{5CB127A0-0690-4DF7-92C2-05381BF55B4D}"/>
+    <hyperlink ref="C2" r:id="rId9" display="https://egypt.tanqeeb.com/ar" xr:uid="{0268799C-D36F-43FF-8B5D-104BD05D75B6}"/>
+    <hyperlink ref="D2" r:id="rId10" display="https://www.seek.com.au/jobs/in-egypt" xr:uid="{FCBFB7B7-C049-4366-B42B-B42194592478}"/>
+    <hyperlink ref="F4" r:id="rId11" display="https://ngos-hub.com/" xr:uid="{8249ED98-C1FE-404E-BC75-A4079831A9B8}"/>
+    <hyperlink ref="E2" r:id="rId12" display="https://jobsindeep.com/" xr:uid="{F66A659C-2322-41BE-834D-1F9B917AA57C}"/>
+    <hyperlink ref="A3" r:id="rId13" display="https://www.jobzella.com/" xr:uid="{61A7E98F-27C5-42B6-BBC8-69EEA94BC287}"/>
+    <hyperlink ref="E3" r:id="rId14" display="https://forasna.com/" xr:uid="{3FD8734A-6739-4275-9EF1-856C78BECC21}"/>
+    <hyperlink ref="D3" r:id="rId15" display="https://www.waziftakherenow.com/" xr:uid="{AD944794-7CE7-4C10-B8B2-2B9BD6108805}"/>
+    <hyperlink ref="B3" r:id="rId16" display="https://eg.indeed.com/?from=gnav-jobsearch--jasx" xr:uid="{F55380D3-24AA-4036-80D5-EE2F90923FE7}"/>
+    <hyperlink ref="F2" r:id="rId17" display="https://www.al7arefa.com/ar/" xr:uid="{4584FAFD-2DEA-4B2F-AB33-EC8F5D9CED77}"/>
+    <hyperlink ref="C3" r:id="rId18" display="https://www.glassdoor.com/index.htm" xr:uid="{9FB1EC6E-D638-4A32-B3D9-5A779D7E18E7}"/>
+    <hyperlink ref="F5" r:id="rId19" display="https://muwuzzuf.com/en" xr:uid="{9A21DCB7-1079-44FE-8F40-678817821E4B}"/>
+    <hyperlink ref="A2" r:id="rId20" display="https://i-need.dev/" xr:uid="{C6042B67-7D04-47AF-B110-6D9D0BF0DCFC}"/>
+    <hyperlink ref="D5" r:id="rId21" display="https://drjobs.ae/en/egypt/jobs" xr:uid="{340F538D-91DF-4C86-B222-24FDD07C6E37}"/>
+    <hyperlink ref="C4" r:id="rId22" display="https://jobmaster.jobmastergroup.com/" xr:uid="{0E209B63-34C3-46D7-87EE-CFCA82280F6E}"/>
+    <hyperlink ref="B7" r:id="rId23" display="https://www.facebook.com/andrewashraf.me" xr:uid="{AFD025F4-EF99-470B-916C-3B94104E77CF}"/>
+    <hyperlink ref="D4" r:id="rId24" display="https://www.pgcareers.com/search-jobs?ascf=%5b%7b%27key%27:%27custom_fields.Language%27,%27value%27:%27English%27%7d,%5d&amp;alp=357994&amp;alt=2" xr:uid="{A24D1056-275E-43A6-9B54-7A97C642A79B}"/>
+    <hyperlink ref="E4" r:id="rId25" display="https://www.facebook.com/ShaghalniOfficial" xr:uid="{B69CEECA-50A7-4368-AF90-67B7BFFC867C}"/>
+    <hyperlink ref="B5" r:id="rId26" display="https://www.facebook.com/yallawork.ngo" xr:uid="{BB53B9D3-9129-4274-A30E-F49EE8E67B55}"/>
+    <hyperlink ref="F7" r:id="rId27" display="http://www.ibsns.com/" xr:uid="{4B2B41C8-0E6A-4523-AFF6-AA2BB188658B}"/>
+    <hyperlink ref="B1" location="Companies!A1" display="شركات" xr:uid="{CDFA0870-5DE2-4F3F-B148-F1FBDEEB98A3}"/>
+    <hyperlink ref="I2" location="Help!A1" display="Help ! " xr:uid="{81BF30DA-3498-4749-9880-636946F2669F}"/>
+    <hyperlink ref="A1" location="'Tech Co'!A1" display="[Tech CO]" xr:uid="{3E3174E2-59F8-47D3-9D1E-C30083509782}"/>
+    <hyperlink ref="C1" location="training!A1" display="منح و تدريب" xr:uid="{48237D30-2424-4A0E-ACF6-702A80C93AA6}"/>
+    <hyperlink ref="B4" r:id="rId28" display="https://www.facebook.com/Jobeexjobs" xr:uid="{1C80701E-8D1F-415D-98EB-ADEE7EE9DB73}"/>
+    <hyperlink ref="F3" r:id="rId29" display="freeejobs" xr:uid="{AF6E842B-278C-4DD9-96BD-4A98FEDC10F5}"/>
+    <hyperlink ref="A7" r:id="rId30" display="Salsabeel Elsanhory" xr:uid="{DCA96FF7-D15B-4E7B-91C5-7022F4F3D4BF}"/>
+    <hyperlink ref="I1" r:id="rId31" xr:uid="{7AA4A900-3FDC-4FE6-AF18-195FCA813159}"/>
+    <hyperlink ref="G3" r:id="rId32" display="careerjet" xr:uid="{E6B44DCE-81B2-45FC-8C7D-E6DB120BBE24}"/>
+    <hyperlink ref="C5" r:id="rId33" xr:uid="{822D81DE-F845-46C9-BCDA-54535AED662B}"/>
+    <hyperlink ref="I5" location="Markets!A1" display="أسواق" xr:uid="{36F13ACE-B3F0-4CD7-B9E9-8E3108C1D492}"/>
+    <hyperlink ref="D7" r:id="rId34" xr:uid="{CD5BE00A-662A-482E-9BB2-00F7653F5AEE}"/>
+    <hyperlink ref="C7" r:id="rId35" xr:uid="{16332ECD-6AC9-4E60-9AB9-C8CDED7CB114}"/>
+    <hyperlink ref="E7" r:id="rId36" xr:uid="{497B7B28-C4B6-4DC8-A0DD-9CD174F3EA2C}"/>
+    <hyperlink ref="A5" r:id="rId37" display="iCareerEgy" xr:uid="{86CC2BAE-A0EF-4862-A2C2-60751E6F2A24}"/>
+    <hyperlink ref="G2" r:id="rId38" display="https://www.goodfirms.co/" xr:uid="{F7393069-7D33-46BB-A062-8F9359424D47}"/>
+    <hyperlink ref="I3" location="'Face Groups'!A1" display="Facebook| Groups" xr:uid="{DDC6475F-88F5-4B17-B6E7-2951F64D105E}"/>
+    <hyperlink ref="I6" location="'O-Lvl'!A1" display="Other Level" xr:uid="{7BA28BD3-A9CD-4BF2-A94E-0BF81568972E}"/>
+    <hyperlink ref="G7" location="Oth.Comp!A1" display="دليل شركات" xr:uid="{23170B6D-0052-45B2-97B4-AA1CB0CACFDB}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351CB7F5-0732-4C7D-AB4A-38AEE92C8DA0}">
   <dimension ref="A1:E8"/>
@@ -7712,7 +8479,7 @@
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -7773,22 +8540,22 @@
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -7800,22 +8567,22 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -7929,10 +8696,10 @@
     </row>
     <row r="17" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -7943,22 +8710,22 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="150" t="s">
-        <v>579</v>
+      <c r="B18" s="144" t="s">
+        <v>562</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="150" t="s">
-        <v>583</v>
+      <c r="B19" s="144" t="s">
+        <v>566</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -7967,10 +8734,10 @@
     </row>
     <row r="20" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="B20" s="150" t="s">
-        <v>580</v>
+        <v>560</v>
+      </c>
+      <c r="B20" s="144" t="s">
+        <v>563</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -7979,10 +8746,10 @@
     </row>
     <row r="21" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="B21" s="150" t="s">
-        <v>581</v>
+        <v>565</v>
+      </c>
+      <c r="B21" s="144" t="s">
+        <v>564</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -7991,10 +8758,10 @@
     </row>
     <row r="22" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="B22" s="150" t="s">
-        <v>588</v>
+        <v>570</v>
+      </c>
+      <c r="B22" s="144" t="s">
+        <v>571</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -8002,16 +8769,16 @@
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="150"/>
-      <c r="B23" s="150"/>
+      <c r="A23" s="144"/>
+      <c r="B23" s="144"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="150"/>
-      <c r="B24" s="150"/>
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -8019,7 +8786,7 @@
     </row>
     <row r="25" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="150"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -8027,7 +8794,7 @@
     </row>
     <row r="26" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="150"/>
+      <c r="B26" s="144"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -8035,7 +8802,7 @@
     </row>
     <row r="27" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="150"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -8043,7 +8810,7 @@
     </row>
     <row r="28" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="150"/>
+      <c r="B28" s="144"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -8051,10 +8818,10 @@
     </row>
     <row r="29" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B29" s="150" t="s">
-        <v>585</v>
+        <v>153</v>
+      </c>
+      <c r="B29" s="144" t="s">
+        <v>568</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -8063,7 +8830,7 @@
     </row>
     <row r="30" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="150"/>
+      <c r="B30" s="144"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -8214,71 +8981,71 @@
   <sheetData>
     <row r="1" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -8287,67 +9054,67 @@
     </row>
     <row r="5" spans="1:7" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -8408,7 +9175,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.85546875" defaultRowHeight="73.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8420,91 +9187,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="153" t="s">
+      <c r="A1" s="147" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="147" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="147" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="149" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="147" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="147" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="147" t="s">
+        <v>181</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+    </row>
+    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="147" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="147" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+    </row>
+    <row r="4" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="147" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="147" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="153" t="s">
+      <c r="C4" s="147" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="153" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="155" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="153" t="s">
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+    </row>
+    <row r="5" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="147"/>
+      <c r="B5" s="147" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="153" t="s">
+      <c r="C5" s="147" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+    </row>
+    <row r="6" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="147" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-    </row>
-    <row r="3" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="153" t="s">
-        <v>174</v>
-      </c>
-      <c r="B3" s="153" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="153" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="153"/>
-    </row>
-    <row r="4" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="153" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="153" t="s">
+      <c r="B6" s="147" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="153" t="s">
-        <v>178</v>
-      </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="153"/>
-    </row>
-    <row r="5" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="153" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="148"/>
+    </row>
+    <row r="7" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="147" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="153" t="s">
-        <v>185</v>
-      </c>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-    </row>
-    <row r="6" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="153" t="s">
-        <v>187</v>
-      </c>
-      <c r="B6" s="153" t="s">
-        <v>179</v>
-      </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="154"/>
-      <c r="E6" s="154"/>
-    </row>
-    <row r="7" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="153" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="153" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8555,283 +9322,283 @@
   <sheetData>
     <row r="1" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="E1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>208</v>
-      </c>
       <c r="I1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="I2" s="16" t="s">
         <v>213</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="E3" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="G3" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173"/>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="174"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="174"/>
-      <c r="H5" s="174"/>
-      <c r="I5" s="175"/>
+      <c r="A5" s="195"/>
+      <c r="B5" s="196"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="196"/>
+      <c r="H5" s="196"/>
+      <c r="I5" s="197"/>
     </row>
     <row r="6" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>230</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>231</v>
-      </c>
     </row>
     <row r="7" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173"/>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="175"/>
+      <c r="A7" s="195"/>
+      <c r="B7" s="196"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="197"/>
     </row>
     <row r="8" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="E8" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="F8" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="G8" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>245</v>
-      </c>
     </row>
     <row r="10" spans="1:9" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="173"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="174"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="174"/>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="174"/>
-      <c r="I10" s="175"/>
+      <c r="A10" s="195"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="197"/>
     </row>
     <row r="11" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="E11" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>249</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="E12" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="F12" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="G12" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E12" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>259</v>
-      </c>
     </row>
     <row r="13" spans="1:9" ht="2.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="173"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="176"/>
-      <c r="D13" s="176"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="176"/>
-      <c r="H13" s="174"/>
-      <c r="I13" s="175"/>
+      <c r="A13" s="195"/>
+      <c r="B13" s="198"/>
+      <c r="C13" s="198"/>
+      <c r="D13" s="198"/>
+      <c r="E13" s="198"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="196"/>
+      <c r="I13" s="197"/>
     </row>
     <row r="14" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>263</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>266</v>
       </c>
       <c r="H14" s="19"/>
     </row>
     <row r="15" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>615</v>
+        <v>598</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>617</v>
+        <v>600</v>
       </c>
       <c r="G15" s="21"/>
       <c r="H15" s="19"/>
@@ -8849,22 +9616,22 @@
     </row>
     <row r="17" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>270</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>274</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="G17" s="22"/>
     </row>
@@ -8877,16 +9644,16 @@
     </row>
     <row r="19" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>278</v>
       </c>
       <c r="E19" s="23"/>
     </row>
@@ -8899,13 +9666,13 @@
     </row>
     <row r="21" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
@@ -9020,19 +9787,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>285</v>
-      </c>
       <c r="F1" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -9043,16 +9810,16 @@
     </row>
     <row r="3" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>286</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9089,10 +9856,10 @@
       <c r="A9" s="24"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
@@ -9115,13 +9882,13 @@
     </row>
     <row r="17" spans="1:3" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -9147,663 +9914,672 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9977A93-9C4A-4E25-9D64-A0FBE0508D58}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="26" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3" style="26" customWidth="1"/>
-    <col min="7" max="7" width="19" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="26" customWidth="1"/>
-    <col min="9" max="9" width="3" style="26" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" style="26" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="1" width="28.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.42578125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" style="25" customWidth="1"/>
+    <col min="7" max="7" width="19" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5703125" style="25" customWidth="1"/>
+    <col min="9" max="9" width="1.85546875" style="25" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="25" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" style="25" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="173" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="174" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="213" t="s">
+        <v>293</v>
+      </c>
+      <c r="E1" s="214"/>
+      <c r="F1" s="201"/>
+      <c r="G1" s="205" t="s">
+        <v>602</v>
+      </c>
+      <c r="H1" s="206"/>
+      <c r="I1" s="201"/>
+      <c r="J1" s="209" t="s">
+        <v>295</v>
+      </c>
+      <c r="K1" s="210"/>
+      <c r="M1" s="207" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="B2" s="154">
+        <v>77.5</v>
+      </c>
+      <c r="D2" s="153" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2" s="152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="201"/>
+      <c r="G2" s="171" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" s="172">
+        <v>18</v>
+      </c>
+      <c r="I2" s="201"/>
+      <c r="J2" s="166" t="s">
+        <v>574</v>
+      </c>
+      <c r="K2" s="167" t="s">
+        <v>301</v>
+      </c>
+      <c r="M2" s="208"/>
+    </row>
+    <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" s="154">
+        <v>98</v>
+      </c>
+      <c r="D3" s="156" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" s="27">
+        <v>132</v>
+      </c>
+      <c r="F3" s="201"/>
+      <c r="G3" s="171" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="172">
+        <v>22</v>
+      </c>
+      <c r="I3" s="201"/>
+      <c r="J3" s="166" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" s="167" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B4" s="154">
+        <v>76</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>304</v>
+      </c>
+      <c r="E4" s="27">
+        <v>120</v>
+      </c>
+      <c r="F4" s="201"/>
+      <c r="G4" s="171" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="172">
+        <v>22</v>
+      </c>
+      <c r="I4" s="201"/>
+      <c r="J4" s="166" t="s">
+        <v>654</v>
+      </c>
+      <c r="K4" s="167" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B5" s="154">
+        <v>61</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="28">
+        <v>128</v>
+      </c>
+      <c r="F5" s="201"/>
+      <c r="G5" s="171" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="172">
+        <v>40</v>
+      </c>
+      <c r="I5" s="201"/>
+      <c r="J5" s="166" t="s">
+        <v>314</v>
+      </c>
+      <c r="K5" s="167" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="B6" s="154"/>
+      <c r="D6" s="29" t="s">
+        <v>661</v>
+      </c>
+      <c r="E6" s="28">
+        <v>100</v>
+      </c>
+      <c r="F6" s="201"/>
+      <c r="G6" s="171" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="172" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" s="201"/>
+      <c r="J6" s="168" t="s">
+        <v>621</v>
+      </c>
+      <c r="K6" s="169" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="B7" s="154"/>
+      <c r="D7" s="29" t="s">
+        <v>607</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="201"/>
+      <c r="G7" s="171" t="s">
+        <v>611</v>
+      </c>
+      <c r="H7" s="172" t="s">
+        <v>668</v>
+      </c>
+      <c r="I7" s="201"/>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="B8" s="137" t="s">
+        <v>319</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>608</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="201"/>
+      <c r="G8" s="171" t="s">
+        <v>619</v>
+      </c>
+      <c r="H8" s="172"/>
+      <c r="I8" s="201"/>
+      <c r="J8" s="202" t="s">
+        <v>626</v>
+      </c>
+      <c r="K8" s="202"/>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="175" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>660</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="201"/>
+      <c r="G9" s="171" t="s">
+        <v>620</v>
+      </c>
+      <c r="H9" s="172" t="s">
+        <v>667</v>
+      </c>
+      <c r="I9" s="201"/>
+      <c r="J9" s="158" t="s">
+        <v>308</v>
+      </c>
+      <c r="K9" s="158" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="153" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F10" s="201"/>
+      <c r="G10" s="171" t="s">
+        <v>669</v>
+      </c>
+      <c r="H10" s="172" t="s">
+        <v>670</v>
+      </c>
+      <c r="I10" s="201"/>
+      <c r="J10" s="158" t="s">
+        <v>617</v>
+      </c>
+      <c r="K10" s="158" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="176" t="s">
+        <v>324</v>
+      </c>
+      <c r="B11" s="177" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="E11" s="27">
+        <v>143</v>
+      </c>
+      <c r="F11" s="201"/>
+      <c r="I11" s="201"/>
+      <c r="J11" s="158"/>
+      <c r="K11" s="158"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="166" t="s">
+        <v>612</v>
+      </c>
+      <c r="B12" s="178"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="211" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="163" t="s">
-        <v>295</v>
-      </c>
-      <c r="D1" s="177" t="s">
-        <v>296</v>
-      </c>
-      <c r="E1" s="178"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="184" t="s">
-        <v>619</v>
-      </c>
-      <c r="H1" s="185"/>
-      <c r="I1" s="183"/>
-      <c r="J1" s="188" t="s">
+      <c r="H12" s="212"/>
+      <c r="I12" s="201"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="166" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="178">
+        <v>69</v>
+      </c>
+      <c r="D13" s="153" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="201"/>
+      <c r="G13" s="163" t="s">
         <v>298</v>
       </c>
-      <c r="K1" s="189"/>
-      <c r="M1" s="186" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>620</v>
-      </c>
-      <c r="B2" s="110">
-        <v>77.5</v>
-      </c>
-      <c r="D2" s="160" t="s">
+      <c r="H13" s="163" t="s">
         <v>300</v>
       </c>
-      <c r="E2" s="159" t="s">
-        <v>295</v>
-      </c>
-      <c r="F2" s="183"/>
-      <c r="G2" s="158" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2" s="99">
-        <v>18</v>
-      </c>
-      <c r="I2" s="183"/>
-      <c r="J2" s="29" t="s">
-        <v>591</v>
-      </c>
-      <c r="K2" s="29" t="s">
+      <c r="I13" s="201"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="166" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="179">
+        <v>23</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="27">
+        <v>120</v>
+      </c>
+      <c r="F14" s="201"/>
+      <c r="G14" s="163" t="s">
         <v>305</v>
       </c>
-      <c r="M2" s="187"/>
-    </row>
-    <row r="3" spans="1:13" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="110">
-        <v>98</v>
-      </c>
-      <c r="D3" s="169" t="s">
-        <v>623</v>
-      </c>
-      <c r="E3" s="28">
-        <v>132</v>
-      </c>
-      <c r="F3" s="183"/>
-      <c r="G3" s="158" t="s">
-        <v>303</v>
-      </c>
-      <c r="H3" s="99">
-        <v>22</v>
-      </c>
-      <c r="I3" s="183"/>
-      <c r="J3" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>306</v>
-      </c>
-      <c r="B4" s="110">
-        <v>76</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="E4" s="28">
-        <v>120</v>
-      </c>
-      <c r="F4" s="183"/>
-      <c r="G4" s="158" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" s="99">
-        <v>22</v>
-      </c>
-      <c r="I4" s="183"/>
-      <c r="J4" s="29" t="s">
-        <v>317</v>
-      </c>
-      <c r="K4" s="29" t="s">
+      <c r="H14" s="163" t="s">
+        <v>615</v>
+      </c>
+      <c r="I14" s="201"/>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="181" t="s">
+        <v>293</v>
+      </c>
+      <c r="B15" s="182" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="163" t="s">
+        <v>652</v>
+      </c>
+      <c r="H15" s="164" t="s">
+        <v>622</v>
+      </c>
+      <c r="I15" s="201"/>
+      <c r="J15" s="131" t="s">
+        <v>609</v>
+      </c>
+      <c r="K15" s="131" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>318</v>
+      </c>
+      <c r="B16" s="180" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" s="201"/>
+      <c r="G16" s="163" t="s">
+        <v>653</v>
+      </c>
+      <c r="H16" s="163" t="s">
+        <v>650</v>
+      </c>
+      <c r="I16" s="201"/>
+      <c r="J16" s="131"/>
+      <c r="K16" s="131"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17" s="180" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="201"/>
+      <c r="G17" s="165" t="s">
+        <v>655</v>
+      </c>
+      <c r="H17" s="165" t="s">
+        <v>651</v>
+      </c>
+      <c r="I17" s="201"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
+    </row>
+    <row r="18" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="39" t="s">
+        <v>340</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="201"/>
+      <c r="I18" s="201"/>
+    </row>
+    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33" t="s">
+        <v>604</v>
+      </c>
+      <c r="B19" s="155" t="s">
+        <v>292</v>
+      </c>
+      <c r="D19" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>344</v>
+      </c>
+      <c r="F19" s="201"/>
+      <c r="G19" s="203" t="s">
+        <v>601</v>
+      </c>
+      <c r="H19" s="204"/>
+      <c r="I19" s="201"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="154" t="s">
+        <v>656</v>
+      </c>
+      <c r="B20" s="103"/>
+      <c r="D20" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="201"/>
+      <c r="G20" s="151" t="s">
+        <v>321</v>
+      </c>
+      <c r="H20" s="93" t="s">
+        <v>322</v>
+      </c>
+      <c r="I20" s="201"/>
+    </row>
+    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="154" t="s">
+        <v>658</v>
+      </c>
+      <c r="B21" s="103"/>
+      <c r="D21" s="34" t="s">
+        <v>665</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="151" t="s">
+        <v>605</v>
+      </c>
+      <c r="H21" s="93" t="s">
+        <v>322</v>
+      </c>
+      <c r="I21" s="201"/>
+      <c r="J21" s="192"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="154" t="s">
+        <v>657</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="D22" s="34" t="s">
+        <v>666</v>
+      </c>
+      <c r="E22" s="43"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="151"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="201"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="154" t="s">
+        <v>659</v>
+      </c>
+      <c r="B23" s="103"/>
+      <c r="D23" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="201"/>
+      <c r="G23" s="151"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="201"/>
+    </row>
+    <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="154" t="s">
+        <v>662</v>
+      </c>
+      <c r="B24" s="103"/>
+      <c r="D24" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="201"/>
+      <c r="G24" s="170" t="s">
+        <v>613</v>
+      </c>
+      <c r="H24" s="90"/>
+      <c r="I24" s="201"/>
+    </row>
+    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="154" t="s">
+        <v>663</v>
+      </c>
+      <c r="B25" s="103"/>
+    </row>
+    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="154" t="s">
+        <v>664</v>
+      </c>
+      <c r="B26" s="103"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="154"/>
+      <c r="B27" s="43"/>
+    </row>
+    <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="157"/>
+      <c r="B28" s="44"/>
+    </row>
+    <row r="29" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="160"/>
+      <c r="D29" s="159" t="s">
+        <v>351</v>
+      </c>
+      <c r="F29" s="160"/>
+      <c r="G29" s="45" t="s">
+        <v>353</v>
+      </c>
+      <c r="H29" s="159" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="215" t="s">
+        <v>323</v>
+      </c>
+      <c r="B30" s="216"/>
+      <c r="G30" s="162" t="s">
+        <v>350</v>
+      </c>
+      <c r="H30" s="161" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>311</v>
-      </c>
-      <c r="B5" s="110">
-        <v>61</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="E5" s="31">
-        <v>128</v>
-      </c>
-      <c r="F5" s="183"/>
-      <c r="G5" s="158" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="99">
-        <v>40</v>
-      </c>
-      <c r="I5" s="183"/>
-      <c r="J5" s="29" t="s">
-        <v>322</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="110"/>
-      <c r="D6" s="32" t="s">
-        <v>316</v>
-      </c>
-      <c r="E6" s="31">
-        <v>100</v>
-      </c>
-      <c r="F6" s="183"/>
-      <c r="G6" s="158" t="s">
-        <v>318</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>319</v>
-      </c>
-      <c r="I6" s="183"/>
-      <c r="J6" s="36" t="s">
+      <c r="B31" s="35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="K6" s="36"/>
-    </row>
-    <row r="7" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>624</v>
-      </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="158" t="s">
-        <v>628</v>
-      </c>
-      <c r="H7" s="99"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="36" t="s">
-        <v>631</v>
-      </c>
-      <c r="K7" s="36"/>
-    </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
+      <c r="B32" s="35">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34" t="s">
         <v>331</v>
       </c>
-      <c r="B8" s="107" t="s">
-        <v>330</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="183"/>
-      <c r="G8" s="158" t="s">
-        <v>638</v>
-      </c>
-      <c r="H8" s="99"/>
-      <c r="I8" s="183"/>
-    </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="33" t="s">
-        <v>320</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="158" t="s">
-        <v>639</v>
-      </c>
-      <c r="H9" s="99"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="226" t="s">
-        <v>633</v>
-      </c>
-      <c r="K9" s="226"/>
-    </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
+      <c r="B33" s="145" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
         <v>335</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="D10" s="160" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10" s="159" t="s">
-        <v>295</v>
-      </c>
-      <c r="F10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="227" t="s">
-        <v>312</v>
-      </c>
-      <c r="K10" s="227" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
-        <v>629</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="D11" s="35" t="s">
-        <v>326</v>
-      </c>
-      <c r="E11" s="28">
-        <v>143</v>
-      </c>
-      <c r="F11" s="183"/>
-      <c r="G11" s="234" t="s">
-        <v>297</v>
-      </c>
-      <c r="H11" s="235"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="227" t="s">
-        <v>636</v>
-      </c>
-      <c r="K11" s="227" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41" t="s">
+      <c r="B34" s="35">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="B35" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
         <v>337</v>
       </c>
-      <c r="B12" s="28">
-        <v>69</v>
-      </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="236" t="s">
-        <v>301</v>
-      </c>
-      <c r="H12" s="236" t="s">
-        <v>304</v>
-      </c>
-      <c r="I12" s="183"/>
-      <c r="J12" s="227"/>
-      <c r="K12" s="227"/>
-    </row>
-    <row r="13" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
-        <v>340</v>
-      </c>
-      <c r="B13" s="31">
-        <v>23</v>
-      </c>
-      <c r="D13" s="160" t="s">
+      <c r="B36" s="35">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="B37" s="35"/>
+    </row>
+    <row r="38" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="E13" s="159" t="s">
-        <v>295</v>
-      </c>
-      <c r="F13" s="183"/>
-      <c r="G13" s="236" t="s">
-        <v>309</v>
-      </c>
-      <c r="H13" s="236" t="s">
-        <v>634</v>
-      </c>
-      <c r="I13" s="183"/>
-      <c r="J13" s="227"/>
-      <c r="K13" s="227"/>
-    </row>
-    <row r="14" spans="1:13" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14" s="28">
-        <v>120</v>
-      </c>
-      <c r="F14" s="183"/>
-      <c r="G14" s="236" t="s">
-        <v>321</v>
-      </c>
-      <c r="H14" s="237" t="s">
-        <v>632</v>
-      </c>
-      <c r="I14" s="183"/>
-    </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="183"/>
-      <c r="G15" s="236" t="s">
-        <v>324</v>
-      </c>
-      <c r="H15" s="236"/>
-      <c r="I15" s="183"/>
-      <c r="J15" s="137" t="s">
-        <v>626</v>
-      </c>
-      <c r="K15" s="137" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>331</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="F16" s="183"/>
-      <c r="G16" s="238" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" s="238"/>
-      <c r="I16" s="183"/>
-      <c r="J16" s="137"/>
-      <c r="K16" s="137"/>
-    </row>
-    <row r="17" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="183"/>
-      <c r="I17" s="183"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="137"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="B18" s="164" t="s">
-        <v>295</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="E18" s="46" t="s">
-        <v>356</v>
-      </c>
-      <c r="F18" s="183"/>
-      <c r="G18" s="228" t="s">
-        <v>618</v>
-      </c>
-      <c r="H18" s="229"/>
-      <c r="I18" s="183"/>
-      <c r="J18" s="137"/>
-      <c r="K18" s="137"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
-        <v>338</v>
-      </c>
-      <c r="B19" s="109">
-        <v>41</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="E19" s="49" t="s">
-        <v>360</v>
-      </c>
-      <c r="F19" s="183"/>
-      <c r="G19" s="158" t="s">
-        <v>332</v>
-      </c>
-      <c r="H19" s="99" t="s">
-        <v>333</v>
-      </c>
-      <c r="I19" s="183"/>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="161" t="s">
-        <v>341</v>
-      </c>
-      <c r="B20" s="109">
-        <v>84</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="E20" s="49" t="s">
-        <v>364</v>
-      </c>
-      <c r="F20" s="183"/>
-      <c r="G20" s="158" t="s">
-        <v>622</v>
-      </c>
-      <c r="H20" s="99" t="s">
-        <v>333</v>
-      </c>
-      <c r="I20" s="183"/>
-    </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="161" t="s">
+      <c r="B38" s="42"/>
+    </row>
+    <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="199" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="109">
-        <v>169</v>
-      </c>
-      <c r="D21" s="47" t="s">
-        <v>338</v>
-      </c>
-      <c r="E21" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="F21" s="183"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="183"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="161" t="s">
-        <v>348</v>
-      </c>
-      <c r="B22" s="109">
-        <v>142</v>
-      </c>
-      <c r="F22" s="183"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="183"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="161" t="s">
-        <v>350</v>
-      </c>
-      <c r="B23" s="109">
-        <v>35</v>
-      </c>
-      <c r="F23" s="183"/>
-      <c r="G23" s="165"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="183"/>
-    </row>
-    <row r="24" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="161" t="s">
-        <v>353</v>
-      </c>
-      <c r="B24" s="109">
-        <v>120</v>
-      </c>
-      <c r="F24" s="183"/>
-      <c r="G24" s="167" t="s">
-        <v>630</v>
-      </c>
-      <c r="H24" s="168"/>
-      <c r="I24" s="183"/>
-    </row>
-    <row r="25" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="161" t="s">
-        <v>357</v>
-      </c>
-      <c r="B25" s="109">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="161" t="s">
-        <v>361</v>
-      </c>
-      <c r="B26" s="49">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="170"/>
-      <c r="B27" s="50"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:11" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="230" t="s">
-        <v>366</v>
-      </c>
-      <c r="B29" s="233" t="s">
-        <v>367</v>
-      </c>
-      <c r="C29" s="231"/>
-      <c r="D29" s="230" t="s">
-        <v>368</v>
-      </c>
-      <c r="E29" s="232" t="s">
-        <v>369</v>
-      </c>
-      <c r="F29" s="231"/>
-      <c r="G29" s="51" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="179" t="s">
-        <v>334</v>
-      </c>
-      <c r="B31" s="180"/>
-    </row>
-    <row r="32" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="B32" s="40">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="B33" s="40">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
-        <v>343</v>
-      </c>
-      <c r="B34" s="151" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" s="40">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="B36" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
-        <v>351</v>
-      </c>
-      <c r="B37" s="40">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
-        <v>354</v>
-      </c>
-      <c r="B38" s="40"/>
-    </row>
-    <row r="39" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47" t="s">
-        <v>358</v>
-      </c>
-      <c r="B39" s="48"/>
-    </row>
-    <row r="40" spans="1:2" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="181" t="s">
-        <v>362</v>
-      </c>
-      <c r="B40" s="182"/>
+      <c r="B39" s="200"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="I1:I24"/>
     <mergeCell ref="F1:F24"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E29" location="Sports!A1" display="Sport" xr:uid="{0E60B1D8-A03B-425B-B677-F574292DD411}"/>
+    <hyperlink ref="H30" location="Sports!A1" display="Sport" xr:uid="{0E60B1D8-A03B-425B-B677-F574292DD411}"/>
     <hyperlink ref="G29" location="Clothes!A1" display="--&gt; Cloths &lt;--" xr:uid="{375C4977-9AD6-4263-81AE-B5BA08EB21E5}"/>
     <hyperlink ref="D29" location="'W(KG)'!A1" display="Weight (KG)" xr:uid="{0E005189-6B4A-4EAD-8361-B65EF0013ADB}"/>
-    <hyperlink ref="B29" location="Kidney!A1" display="كٌلي" xr:uid="{3DC46F57-A74B-4F13-A464-0459652F93B3}"/>
-    <hyperlink ref="A29" location="Advise!A1" display="نصائح" xr:uid="{D338DCDA-2EE3-4AE9-AD5C-8878ADCCB93E}"/>
+    <hyperlink ref="G30" location="Kidney!A1" display="كٌلي" xr:uid="{3DC46F57-A74B-4F13-A464-0459652F93B3}"/>
+    <hyperlink ref="H29" location="Advise!A1" display="نصائح" xr:uid="{D338DCDA-2EE3-4AE9-AD5C-8878ADCCB93E}"/>
     <hyperlink ref="M1:M2" location="'0'!A1" display="Back" xr:uid="{6251A5A8-2E74-46A2-BD4C-E5981E350C13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
